--- a/GameMasterGuide/Data/Beasts/beasts.xlsx
+++ b/GameMasterGuide/Data/Beasts/beasts.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="482">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -584,55 +584,14 @@
     <t xml:space="preserve">This grossly oversized spider is the result of a freak mutation which  causes them to grow to grotesque sizes and become viciously maternal. A Brood Mother will collect any and all spider eggs that it finds and nuture them as if they were her own in the dark, secluded where she has built her nest.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">\meleeConsequence{Poison Fangs}{4}{-1}{Stabbing damage}{1 + Successes}{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">If the attack deals any damage, the victim takes the \imp{Poisoned} status (1 \imp{harm}, requires 10 successes)}
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">\ability{Hatch Brood}{Perform a DV 7 \imp{Command} check, hatching a number of spiders equal to the successes into a space adjacent to the \name{}. Each hatchling has 1 level of health, but otherwise has the same statistics as the \name{}, without the \imp{Hatch Brood} ability..}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">\skill{Inhuman Senses}{5} 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">\skill{Climb}{3} 
+    <t xml:space="preserve">\meleeConsequence{Poison Fangs}{4}{-1}{Stabbing damage}{1 + Successes}{If the attack deals any damage, the victim takes the \imp{Poisoned} status (1 \imp{harm}, requires 10 successes)}
+\ability{Hatch Brood}{Perform a DV 7 \imp{Command} check, hatching a number of spiders equal to the successes into a space adjacent to the \name{}. Each hatchling has 1 level of health, but otherwise has the same statistics as the \name{}, without the \imp{Hatch Brood} ability..}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\skill{Inhuman Senses}{5} 
+\skill{Climb}{3} 
 \skill{Covert}{4} 
 \skill{Command}{3}</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">\ability{Webwalker}{\article{} \name{} takes no movement penalty on webbed surfaces, and uses their \imp{Inhuman Senses} to sense vibrations in their webs.}   
@@ -786,35 +745,9 @@
 Mountain trolls can occasionally be seen mounted on Graphorns, though the latter do not seem to take kindly to attempts to tame them and it is more common to see a troll covered in Graphorn scars. Powdered Graphorn horn is used in many potions, though it is immensely expensive owing to the difficulty in collecting it. Graphorn hide is even tougher than a dragon’s and repels most spells.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">\meleeConsequence{Horn Gore}{7}{0}{Stabbing Damage}{2 + Successes}{If the \name{} moves at least half its full movement before taking this attack, it deals an additional three levels of harm.}
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">\meleeConsequence{Body Slam}{5}{-2}{Crushing Damage}{3 + Successes}{This ability leaves the \name{} \imp{Prone} }
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
+    <t xml:space="preserve">\meleeConsequence{Horn Gore}{7}{0}{Stabbing Damage}{2 + Successes}{If the \name{} moves at least half its full movement before taking this attack, it deals an additional three levels of harm.}
+\meleeConsequence{Body Slam}{5}{-2}{Crushing Damage}{3 + Successes}{This ability leaves the \name{} \imp{Prone} }
 \melee{Tail strike}{(range 3m), 6}{-2}{Bashing damage}{1 + Successes}</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">\skill{Strength}{4}
@@ -857,24 +790,8 @@
 It is said that once a \name{} has started moving, no force, physical or magical can stop them or change their path unless they choose to – researchers have found that diving out of the way of the path of a \name{} on the warpath is often the most sensible option. </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">\ability{Trampling Charge}{The \name{} moves in a straight line a distance equal to its movement speed, tracing a cylinder with a 1m radius. Any being caught in this region which does not use the \imp{Dodge} action (Or have an ally do the same to save them) takes level 5 \imp{crushing} damage. }
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">\meleeConsequence{Body Slam}{6}{-2}{Crushing Damage}{3 + Successes}{This ability leaves the \name{} \imp{Prone} }</t>
-    </r>
+    <t xml:space="preserve">\ability{Trampling Charge}{The \name{} moves in a straight line a distance equal to its movement speed, tracing a cylinder with a 1m radius. Any being caught in this region which does not use the \imp{Dodge} action (Or have an ally do the same to save them) takes level 5 \imp{crushing} damage. }
+\meleeConsequence{Body Slam}{6}{-2}{Crushing Damage}{3 + Successes}{This ability leaves the \name{} \imp{Prone} }</t>
   </si>
   <si>
     <t xml:space="preserve">\skill{Strength}{9}</t>
@@ -1780,6 +1697,80 @@
   <si>
     <t xml:space="preserve">Sea Serpent</t>
   </si>
+  <si>
+    <t xml:space="preserve">Raiju</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electric Elemental</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Appearing as perfectly normal (albeit electric blue) dogs, Raiju do not seem to be magical upon first glance. However, when angered, electrical energy arcs from every surface of their body, and their growl shakes the ground like distant thunder. 
+After an ambitious magical experiment went awry in 15</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> century Japan, a number of Raiju were stranded in this realm and promptly began to multiply – they are now considered relatively common, and many Japanese witches and wizards have been known to train them as guard dogs and family pets. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Electric Damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\melee{Static Bite}{6}{-2}{Stabbing/Electric}{2 + Successes}
+\ranged{Electric Arc}{10}{7}{0}{Electric}{1 + Successes}
+\area{Rumbling Roar}{Sphere 3m in radius around \name{}}{4}{-1}{Pushback}{2 + Successes}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\skill{Speed}{4}
+\skill{Intimidation}{2}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Crackling Aura}{When threatened, a \name{} genertes an immense static field. Any being passing within 1m of the \name{}, or making a \imp{melee} attack this cycle, is considered \imp{susceptible} to \imp{Electric} damage until the end of the next turn cycle. }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raiju</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nephelai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When one gazes upon the tumultuous, churning, sparking clouds of \imp{Thundertop}, it is easy to imagine that you are witnessing some immense, living creature. This is not as far wrong as you might wish. 
+The \name{} are spirits of energy and thunder, their physical form (if you can really call it `physical’) composed of violent, turbulent stormclouds, bent into the twisted form of a humanoid. As spirits of the storm, they are almost mindless in their destructive wrath, though they are neither cruel or evil. 
+Wielding the ability to generate immense bolts of lightning, and twist their near-incorporeal form into near any shape imaginable, the \name{} are agents of immense chaos when they escape from their natural habitat. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electric Damage, Non-magical physical damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ranged{Lightning Bolt}{100m}{3}{0}{6 + Successes}
+\ability{Chain Lightning}{By expending a \imp{fortitude} point, the \name{} makes successive \imp{Lightning Bolt} attacks against targets in range, with each attack originating from the previous target. The chain ends when an attack fails, or has its \imp{power} reduced to zero. }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Nephelomorph}{A \name{} may alter their form at will, creating images and shapes within themselves, or shrinking or growing themselves to any size between mere centimetres and hundreds of metres tall.}
+\ability{Cloud Body}{The body of a \name{} is formed of clouds, bound together by magic. Though they may not pass through solid objects like walls and doors, objects and beings may share the same space as the \name{}. Any living being which spends part of a \imp{cycle} within the \name{} takes \imp{level 5 electric damage}.}</t>
+  </si>
 </sst>
 </file>
 
@@ -1788,7 +1779,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1825,17 +1816,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1847,6 +1827,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -1893,7 +1880,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1926,15 +1913,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1942,7 +1925,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1967,21 +1950,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AI160"/>
+  <dimension ref="A1:AI162"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="W23" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="W1" activeCellId="0" sqref="W1"/>
-      <selection pane="bottomLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="AG25" activeCellId="0" sqref="AG25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="AF149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
+      <selection pane="bottomLeft" activeCell="AE163" activeCellId="0" sqref="AE163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="20.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="61.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="76.26"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="14.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="14.66"/>
@@ -3445,10 +3426,10 @@
       <c r="AE16" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AF16" s="8" t="s">
+      <c r="AF16" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="AG16" s="9" t="s">
+      <c r="AG16" s="8" t="s">
         <v>145</v>
       </c>
       <c r="AH16" s="6" t="s">
@@ -3537,7 +3518,7 @@
       <c r="AF17" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AG17" s="9" t="s">
+      <c r="AG17" s="8" t="s">
         <v>154</v>
       </c>
       <c r="AH17" s="6" t="s">
@@ -5114,7 +5095,7 @@
       <c r="F56" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G56" s="10" t="s">
+      <c r="G56" s="9" t="s">
         <v>167</v>
       </c>
       <c r="AH56" s="6" t="s">
@@ -5143,7 +5124,7 @@
       <c r="F57" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G57" s="10" t="s">
+      <c r="G57" s="9" t="s">
         <v>167</v>
       </c>
       <c r="AH57" s="6" t="s">
@@ -5172,7 +5153,7 @@
       <c r="F58" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G58" s="10" t="s">
+      <c r="G58" s="9" t="s">
         <v>233</v>
       </c>
       <c r="AH58" s="6" t="s">
@@ -5498,7 +5479,7 @@
       <c r="G72" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="AH72" s="11" t="s">
+      <c r="AH72" s="10" t="s">
         <v>310</v>
       </c>
     </row>
@@ -7297,7 +7278,7 @@
       </c>
     </row>
     <row r="144" customFormat="false" ht="51.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="12" t="n">
+      <c r="A144" s="11" t="n">
         <v>2</v>
       </c>
       <c r="B144" s="6" t="s">
@@ -7323,7 +7304,7 @@
       </c>
     </row>
     <row r="145" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="12" t="n">
+      <c r="A145" s="11" t="n">
         <v>3</v>
       </c>
       <c r="B145" s="6" t="s">
@@ -7352,7 +7333,7 @@
       </c>
     </row>
     <row r="146" customFormat="false" ht="234.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="12" t="n">
+      <c r="A146" s="11" t="n">
         <v>4</v>
       </c>
       <c r="B146" s="6" t="s">
@@ -7381,7 +7362,7 @@
       </c>
     </row>
     <row r="147" customFormat="false" ht="253.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="12" t="n">
+      <c r="A147" s="11" t="n">
         <v>5</v>
       </c>
       <c r="B147" s="6" t="s">
@@ -7703,6 +7684,175 @@
         <v>251</v>
       </c>
       <c r="AH160" s="6"/>
+    </row>
+    <row r="161" customFormat="false" ht="91.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E161" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="H161" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I161" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J161" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O161" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P161" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q161" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="R161" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S161" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T161" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U161" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V161" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="W161" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X161" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y161" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z161" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA161" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="AE161" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="AF161" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="AG161" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="AH161" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="153.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E162" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="H162" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I162" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O162" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P162" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q162" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="R162" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S162" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T162" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U162" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="V162" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="W162" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="X162" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y162" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z162" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA162" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="AE162" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="AG162" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="AH162" s="1" t="s">
+        <v>477</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:AI160"/>

--- a/GameMasterGuide/Data/Beasts/beasts.xlsx
+++ b/GameMasterGuide/Data/Beasts/beasts.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="511">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -1738,8 +1738,8 @@
     <t xml:space="preserve">Electric Damage</t>
   </si>
   <si>
-    <t xml:space="preserve">\melee{Static Bite}{6}{-2}{Stabbing/Electric}{2 + Successes}
-\ranged{Electric Arc}{10}{7}{0}{Electric}{1 + Successes}
+    <t xml:space="preserve">\melee{Static Bite}{3}{-2}{Stabbing/Electric}{2 + Successes}
+\ranged{Electric Arc}{5}{7}{0}{Electric}{1 + Successes}
 \area{Rumbling Roar}{Sphere 3m in radius around \name{}}{4}{-1}{Pushback}{2 + Successes}</t>
   </si>
   <si>
@@ -1761,15 +1761,125 @@
 Wielding the ability to generate immense bolts of lightning, and twist their near-incorporeal form into near any shape imaginable, the \name{} are agents of immense chaos when they escape from their natural habitat. </t>
   </si>
   <si>
-    <t xml:space="preserve">Electric Damage, Non-magical physical damage</t>
+    <t xml:space="preserve">Electric damage and the Poisoned, Prone, Blinded, Deafened, Frostbitten and Trapped status effects. </t>
   </si>
   <si>
     <t xml:space="preserve">\ranged{Lightning Bolt}{100m}{3}{0}{6 + Successes}
-\ability{Chain Lightning}{By expending a \imp{fortitude} point, the \name{} makes successive \imp{Lightning Bolt} attacks against targets in range, with each attack originating from the previous target. The chain ends when an attack fails, or has its \imp{power} reduced to zero. }</t>
+\ability{Chain Lightning}{By expending a \imp{fortitude} point, the \name{} makes successive \imp{Lightning Bolt} attacks against targets in range, with each attack originating from the previous target. The chain ends when an attack fails, or has its \imp{power} reduced to zero. }
+\melee{Churning Vortex}{10}{0}{Cold/Bashing}{1 + Successes, against all targets currently inside the \name{} }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\skill{Intimidation}{2} 
+\skill{Inhuman Senses}{3}</t>
   </si>
   <si>
     <t xml:space="preserve">\ability{Nephelomorph}{A \name{} may alter their form at will, creating images and shapes within themselves, or shrinking or growing themselves to any size between mere centimetres and hundreds of metres tall.}
-\ability{Cloud Body}{The body of a \name{} is formed of clouds, bound together by magic. Though they may not pass through solid objects like walls and doors, objects and beings may share the same space as the \name{}. Any living being which spends part of a \imp{cycle} within the \name{} takes \imp{level 5 electric damage}.}</t>
+\ability{Cloud Body}{The body of a \name{} is formed of clouds, bound together by magic. Though they may not pass through solid objects like walls and doors, objects and beings may share the same space as the \name{}. Any living being which spends part of a \imp{cycle} within the \name{} takes \imp{level 5 electric damage}.}
+\ability{Pressure Sense}{Without eyes or ears to speak of, a \name{} relies on their \imp{Inhuman Senses} to detect changes in pressure. As such, they are not fooled by immaterial illusions or simple invisibility.} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyclopes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giantkin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The distinguishing factor of \imp{Cyclopes} in muggle mythology and popular culture is their single, central eye, beyond which they differ only very slightly from their True-Giant cousins, and remain dumb and brutish.  
+Whilst the single, central eye is indeed true, the Cyclopes are fearsomely intelligent, and genius crafters, being experts in the manipulation and generation of electric currents. Of all the magical creatures in existence, only the Cyclopes have kept pace with (and often exceeded) muggles in their technological prowess. 
+In aeons past, they were said to manufacture mighty magical weapons for mythical warriors, capable of bringing down the very gods themselves. Nowadays, a cyclops is  most likely to be found alone in lightning-ravaged mountaintop abodes, designing traps and defenses to keep their foes at bay. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">\speaks{Giant, Human Languages}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\melee{Unarmed Strike}{11}{-2}{Bashing damage}{1 + successes}
+\ranged{Zeus’ Spear}{100m}{3}{-1}{Electric damage}{7 + Successes}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\skill{Craft}{6}
+\skill{Imbue}{6}
+\skill{Strength}{5}
+\skill{Arcane}{5}
+\skill{Science}{4}
+\skill{Technology}{4}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Tool-Users}{The \name{} are masters of tools and weapons of all shapes and sizes, and often have many dozens of weapons to hand, depending on wear and how they are located. They use their \imp{Craft} ability to determine the relevant dice pool.}
+\ability{Armoured}{Unless it is caught totally unawares, a cyclops will have defensive armour and gadgets to protect it, granting +2 power to all successful \imp{Block} rolls.}
+\ability{Magic Resistance}{Gain +2 power on all successful \imp{Resist} checks against magical effects. \imp{Resist} checks against magic do not incur drain.}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cyclops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jotun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whilst many of the \imp{True Giants} have been pushed northwards by the expansion of muggle civilsation, the \name{}’s have pushed this to the extreme, and have survived in the frigid climate of the most Northern and Southern parts of the globe. Their gigantoid resilience has allowed them to adapt to this inhospitable climate, and they have become rugged survivors. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cold Damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\speaks{Giant}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\melee{Greatclub}{12}{-1}{Bashing Damage}{1 + Successes}
+\ranged{Iceball}{25}{3}{0}{Bashing/Cold Damage}{5+Successes}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\skill{Strength}{6}
+\skill{Survival}{6}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Magic Resistance}{Gain +2 power on all successful \imp{Resist} checks against magical effects. \imp{Resist} checks against magic do not incur drain.}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jotun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Humbaba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the giantkin began their exodus from the rest of Giant society, some fled deep underground, into the myriad network of lava tunnels and magma pools that lie underground. Deep in the bones of the Earth, they studied ancient necromancy, and harnessed the grotesque abominations they found squirming in the darkness. 
+Centuries of living with this corrupting influence has warped the \imp{Humbaba} into the most monstrous of the Giantkin. Driven almost entirely mad by the sulphurous fumes and the wailing of their slaves, Humbaba live only to further their own power, enslave those weaker than them, and exert their insane dominance over others.
+Thankfully, history records only one incident of a \name{} breaking free of their self-imposed prison, in around 1000BCE. Surprisingly, this foul creature was slain by a great muggle hero-king.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fire Damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\speaks{Abyssal, Giant}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\melee{Deformed Claws}{12}{-2}{Cutting damage}{3 + successes}
+\area{Fire Breath}{3m cone originating from \name{}}{8}{0}{Fire Damage}{2 + Successes}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\skill{Strength}{7}
+\skill{Spellcasting}{3}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Magic Resistance}{Gain +2 power on all successful \imp{Resist} checks against magical effects. \imp{Resist} checks against magic do not incur drain.}
+\ability{Corrupting Power}{The \name{} may use its \imp{Spellcasting} ability to cast the \imp{Burn}, \imp{Corrupt} and \imp{Infect} spells.}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basajaun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now found only in scattered pockets in the most isolated forests in the world, the \name{} are a peaceful and kindly race of Giantkin, who have taken the forests and woodlands as their hiding place. 
+Acting as guardians of the forests, they are devoted to the protection and nurturing of wildlife and the plants that they hold dear. A single \name{} often personally attends to thousands upon thousands of acres of woodland, and will often know the names of all the creatures who reside there.
+Their fur-covered appearance, lack of agression, short stature (for giants) and general kindliness has meant that \name{} are rarely hunted or even feared by humans. Muggles have developed all sorts of strange myths around the \name{}, giving them the name `Bigfoot’, though wizards have puzzled over the fact that their feet are not particularly large or out of proportion to their bodies. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">\melee{Staffstrike}{8}{-1}{Bashing Damage}{1 + Successes}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\skill{Strength}{4}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basajaun</t>
   </si>
 </sst>
 </file>
@@ -1950,12 +2060,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AI162"/>
+  <dimension ref="A1:AI166"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="AF149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
-      <selection pane="bottomLeft" activeCell="AE163" activeCellId="0" sqref="AE163"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Y1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="AF164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="Y1" activeCellId="0" sqref="Y1"/>
+      <selection pane="bottomLeft" activeCell="AG166" activeCellId="0" sqref="AG166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7685,7 +7795,7 @@
       </c>
       <c r="AH160" s="6"/>
     </row>
-    <row r="161" customFormat="false" ht="91.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="n">
         <v>1</v>
       </c>
@@ -7771,7 +7881,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="153.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="223.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="n">
         <v>2</v>
       </c>
@@ -7844,14 +7954,403 @@
       <c r="AA162" s="1" t="s">
         <v>479</v>
       </c>
+      <c r="AB162" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="AE162" s="1" t="s">
         <v>480</v>
       </c>
+      <c r="AF162" s="1" t="s">
+        <v>481</v>
+      </c>
       <c r="AG162" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AH162" s="1" t="s">
         <v>477</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="176.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="E163" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="H163" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I163" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J163" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K163" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M163" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N163" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="O163" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="P163" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q163" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="R163" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="S163" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="T163" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="U163" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="V163" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="W163" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="X163" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y163" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z163" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA163" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="AD163" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="AE163" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="AF163" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="AG163" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="AH163" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="AI163" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E164" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="H164" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I164" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J164" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K164" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="O164" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P164" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q164" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="R164" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S164" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T164" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U164" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V164" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="W164" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="X164" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y164" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z164" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA164" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="AD164" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="AE164" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="AF164" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="AG164" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="AH164" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="AI164" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="152" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="E165" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="H165" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I165" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J165" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="K165" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L165" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N165" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="O165" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P165" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q165" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="R165" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S165" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T165" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U165" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V165" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="W165" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="X165" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y165" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z165" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA165" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="AB165" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="AD165" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="AE165" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="AF165" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="AG165" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="AH165" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="AI165" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="E166" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="H166" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I166" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J166" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N166" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O166" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P166" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q166" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="R166" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="S166" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T166" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="U166" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V166" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="W166" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="X166" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y166" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z166" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD166" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="AE166" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="AF166" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="AG166" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="AH166" s="1" t="s">
+        <v>510</v>
       </c>
     </row>
   </sheetData>

--- a/GameMasterGuide/Data/Beasts/beasts.xlsx
+++ b/GameMasterGuide/Data/Beasts/beasts.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$2:$AI$160</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$2:$AN$160</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="517">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -49,6 +49,9 @@
     <t xml:space="preserve">Aspects</t>
   </si>
   <si>
+    <t xml:space="preserve">Movement</t>
+  </si>
+  <si>
     <t xml:space="preserve">SpeciesOrder</t>
   </si>
   <si>
@@ -119,6 +122,21 @@
   </si>
   <si>
     <t xml:space="preserve">Languages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunnel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Climb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swim</t>
   </si>
   <si>
     <t xml:space="preserve">Armaments</t>
@@ -162,8 +180,7 @@
     <t xml:space="preserve">\meleeConsequence{Poison Fangs}{3}{0}{Stabbing Damage}{1+Successes}{If the attack deals any damage, the victim takes the \imp{Poisoned} status (1 \imp{harm}, requires 5 successes)}</t>
   </si>
   <si>
-    <t xml:space="preserve">\skill{Climb}{3}
-\skill{Covert}{4}
+    <t xml:space="preserve">\skill{Covert}{4}
 \skill{Inhuman Senses}{2}
 </t>
   </si>
@@ -201,11 +218,25 @@
 \ranged{Websac}{10}{6}{0}{Trapped Status}{1 + Successes}</t>
   </si>
   <si>
-    <t xml:space="preserve">\skill{Climb}{6}
-\skill{Covert}{4}
-\skill{Inhuman Senses}{5}
-\skill{Speed}{5}
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">\skill{Inhuman Senses}{5}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">\skill{Covert}{4}
 \skill{Strength}{3}</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">\ability{Webwalker}{\article{} \name{} takes no movement penalty on webbed surfaces, and uses their \imp{Inhuman Senses} to sense vibrations in their webs.}
@@ -519,7 +550,7 @@
   </si>
   <si>
     <t xml:space="preserve">\skill{Speed}{4}
-\skill{Cover}{3}
+\skill{Covert}{3}
 \skill{Inhuman Senses}{2}</t>
   </si>
   <si>
@@ -657,7 +688,7 @@
 \ability{Energy Reserves}{The \name{} uses some of the cursed energy it has stored in its nest: the effect from the \imp{Blighting presence} becomes one level less severe, but the \name{} makes a \imp{Focussed Blight} attack against all targets in range.}</t>
   </si>
   <si>
-    <t xml:space="preserve">\skill{Speed}{6}</t>
+    <t xml:space="preserve">\skill{Intimidation}{2}</t>
   </si>
   <si>
     <t xml:space="preserve">\ability{Blighting Presence}{A \name{} exudes an aura which curses the land around it for 1km in every direction from its nest. For every week the Nogtail has been nesting, all beings in this radius take a 1d penalty (max 5d) to all checks made, plants wither and die, and animals become sickly and weak. }
@@ -929,7 +960,7 @@
   <si>
     <t xml:space="preserve">\ability{Magical Resistance}{The \name{} gets a +3d bonus to all \imp{Resist} checks against all spells cast below a \levelFour{} level (except the \imp{Patronus})}
 \ability{Puppets of War}{Any being which is reduced to the \imp{Critical Condtion} status within 50m of the \name{} instead heals 1 level of harm, and must begin fighting another target of the \name{}s’s choosing.}
-\ability{Soul Mount}{Whilst mounted, the \name{} gains +2 damage to all attacks against unmounted foes. Any damage dealt to the mount is dealt to the \name{} }</t>
+\ability{Soul Mount}{Whilst mounted, the \name{} gains +2 damage to all attacks against unmounted foes and its movement speed is doubled. Any damage dealt to the mount is dealt to the \name{} }</t>
   </si>
   <si>
     <t xml:space="preserve">shuagh</t>
@@ -1397,7 +1428,7 @@
 \skill{Shapechanging}{5}</t>
   </si>
   <si>
-    <t xml:space="preserve">\ability{Phaseshift}{The \name{} may use its \imp{Shapechanging} ability to morph into gaseous form, where it gains a flying speed of 20m per cycle. It may use this ability again to morph back into liquid form.}</t>
+    <t xml:space="preserve">\ability{Phaseshift}{The \name{} may use its \imp{Shapechanging} ability to morph into gaseous form, where it may use its flight speed, but loses the ability to use \imp{Evaporating Blast}. It may use this ability again to morph back into liquid form.}</t>
   </si>
   <si>
     <t xml:space="preserve">phlogiston</t>
@@ -1764,7 +1795,7 @@
     <t xml:space="preserve">Electric damage and the Poisoned, Prone, Blinded, Deafened, Frostbitten and Trapped status effects. </t>
   </si>
   <si>
-    <t xml:space="preserve">\ranged{Lightning Bolt}{100m}{3}{0}{6 + Successes}
+    <t xml:space="preserve">\ranged{Lightning Bolt}{100m}{3}{-1}{5 + Successes}
 \ability{Chain Lightning}{By expending a \imp{fortitude} point, the \name{} makes successive \imp{Lightning Bolt} attacks against targets in range, with each attack originating from the previous target. The chain ends when an attack fails, or has its \imp{power} reduced to zero. }
 \melee{Churning Vortex}{10}{0}{Cold/Bashing}{1 + Successes, against all targets currently inside the \name{} }</t>
   </si>
@@ -1889,7 +1920,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1917,6 +1948,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2019,23 +2055,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2060,12 +2096,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AI166"/>
+  <dimension ref="A1:AN166"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Y1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="AF164" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="Y1" activeCellId="0" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="AG166" activeCellId="0" sqref="AG166"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AD16" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="AD1" activeCellId="0" sqref="AD1"/>
+      <selection pane="bottomLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="bottomRight" activeCell="AE19" activeCellId="0" sqref="AE19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2078,10 +2116,15 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="14.66"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="25.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="44.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="22.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="45.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="34" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="2" width="7.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="2" width="8.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="2" width="11.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="2" width="10.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="2" width="9.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="44.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="22.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="58.22"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="39" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2123,10 +2166,17 @@
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
+      <c r="AE1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2134,112 +2184,127 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N2" s="3"/>
       <c r="O2" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC2" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AD2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AF2" s="5" t="s">
+      <c r="AE2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AG2" s="5" t="s">
+      <c r="AF2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AH2" s="5" t="s">
+      <c r="AG2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AI2" s="5" t="s">
+      <c r="AH2" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AI2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN2" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="117.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>1</v>
@@ -2290,46 +2355,61 @@
         <v>1</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="134.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AF3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH3" s="1" t="s">
+      <c r="D4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="161.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H4" s="1" t="n">
         <v>3</v>
       </c>
@@ -2388,48 +2468,63 @@
         <v>3</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE4" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH4" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="141.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>59</v>
+      </c>
+      <c r="AE4" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM4" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>6</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>4</v>
@@ -2489,48 +2584,63 @@
         <v>6</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE5" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AI5" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="171.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AM5" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>63</v>
+      <c r="B6" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>3</v>
@@ -2587,51 +2697,66 @@
         <v>3</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="AC6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="AD6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="258.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="D7" s="6" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>4</v>
@@ -2691,54 +2816,69 @@
         <v>5</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="AC7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE7" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL7" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AN7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="AD7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE7" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG7" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI7" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="235" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="D8" s="6" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E8" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>4</v>
@@ -2792,54 +2932,69 @@
         <v>7</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="AC8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE8" s="2" t="n">
+        <v>-3</v>
+      </c>
+      <c r="AF8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN8" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="AD8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE8" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF8" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG8" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH8" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI8" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="188.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="D9" s="6" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E9" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>10</v>
@@ -2899,54 +3054,69 @@
         <v>5</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE9" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF9" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG9" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH9" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI9" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>77</v>
+      </c>
+      <c r="AE9" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL9" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AM9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN9" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>95</v>
+      <c r="B10" s="8" t="s">
+        <v>101</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="N10" s="1" t="n">
         <v>1</v>
@@ -2988,137 +3158,167 @@
         <v>2</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE10" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE10" s="2" t="n">
+        <v>-3</v>
+      </c>
+      <c r="AF10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM10" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="88.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AG10" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AH10" s="6" t="s">
+      <c r="D11" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" s="7" t="s">
+      <c r="H11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S11" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="U11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="W11" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="X11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z11" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB11" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E11" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="H11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="O11" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="P11" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="S11" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="T11" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="U11" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="V11" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="W11" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="X11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z11" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB11" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="AD11" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE11" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AF11" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AG11" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH11" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="130" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>113</v>
+      </c>
+      <c r="AE11" s="2" t="n">
+        <v>-3</v>
+      </c>
+      <c r="AF11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AK11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM11" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>112</v>
+      <c r="B12" s="8" t="s">
+        <v>118</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E12" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="N12" s="1" t="n">
         <v>3</v>
@@ -3160,45 +3360,60 @@
         <v>3</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AE12" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF12" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG12" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AH12" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="106.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>120</v>
+      </c>
+      <c r="AE12" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK12" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AL12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AM12" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>119</v>
+      <c r="B13" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="H13" s="1" t="n">
         <v>1</v>
@@ -3252,46 +3467,61 @@
         <v>1</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="AD13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE13" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF13" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AG13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK13" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AL13" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AM13" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="AH13" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B14" s="7" t="s">
+      <c r="D14" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="G14" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E14" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>123</v>
-      </c>
       <c r="H14" s="1" t="n">
         <v>2</v>
       </c>
@@ -3341,42 +3571,57 @@
         <v>1</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE14" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF14" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AG14" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AH14" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>49</v>
+      </c>
+      <c r="AE14" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AK14" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AL14" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM14" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>134</v>
+      <c r="B15" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="H15" s="1" t="n">
         <v>3</v>
@@ -3430,45 +3675,60 @@
         <v>2</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AD15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE15" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AF15" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AG15" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="AH15" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="153.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>49</v>
+      </c>
+      <c r="AE15" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AK15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL15" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM15" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>141</v>
+      <c r="B16" s="8" t="s">
+        <v>147</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>2</v>
@@ -3528,45 +3788,60 @@
         <v>1</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="AD16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE16" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AF16" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG16" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="AH16" s="6" t="s">
-        <v>146</v>
+        <v>49</v>
+      </c>
+      <c r="AE16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AK16" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL16" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM16" s="6" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>147</v>
+      <c r="B17" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E17" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>2</v>
@@ -3620,42 +3895,57 @@
         <v>3</v>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AE17" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AF17" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AG17" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE17" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AK17" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AL17" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="AM17" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="AH17" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" s="7" t="s">
+      <c r="D18" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>156</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="E18" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>150</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>3</v>
@@ -3712,51 +4002,66 @@
         <v>2</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE18" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AF18" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="AG18" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AH18" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="AI18" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="127.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>74</v>
+      </c>
+      <c r="AE18" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AK18" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AL18" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AM18" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="AN18" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="108.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>164</v>
+      <c r="B19" s="8" t="s">
+        <v>170</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>1</v>
@@ -3804,137 +4109,167 @@
         <v>1</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AD19" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE19" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF19" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE19" s="2" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AF19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AK19" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="AL19" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AM19" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="AG19" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="AH19" s="6" t="s">
+      <c r="D20" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="131.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B20" s="7" t="s">
+      <c r="H20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P20" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U20" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="W20" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="X20" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y20" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D20" s="6" t="s">
+      <c r="AD20" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E20" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="H20" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L20" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O20" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="P20" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q20" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="R20" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S20" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T20" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U20" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="V20" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="W20" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="X20" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y20" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z20" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC20" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="AD20" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE20" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="AF20" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="AG20" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="AH20" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="131.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE20" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK20" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL20" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM20" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>181</v>
+      <c r="B21" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>187</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="E21" s="7" t="n">
+        <v>188</v>
+      </c>
+      <c r="E21" s="8" t="n">
         <v>4</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>6</v>
@@ -3988,137 +4323,167 @@
         <v>6</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AE21" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AF21" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AG21" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AH21" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="153.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>165</v>
+      </c>
+      <c r="AE21" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AK21" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AL21" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AM21" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>181</v>
+      <c r="B22" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>187</v>
       </c>
       <c r="D22" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J22" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O22" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P22" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W22" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="X22" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE22" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AK22" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AL22" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM22" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN22" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E22" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="H22" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="I22" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J22" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="K22" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="O22" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="P22" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q22" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="R22" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S22" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T22" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U22" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="V22" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="W22" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="X22" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y22" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z22" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA22" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="AE22" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AF22" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="AG22" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="AH22" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="AI22" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="121.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>181</v>
-      </c>
       <c r="D23" s="6" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E23" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="H23" s="1" t="n">
         <v>4</v>
@@ -4172,42 +4537,57 @@
         <v>3</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AE23" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AF23" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG23" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="AH23" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="270" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>165</v>
+      </c>
+      <c r="AE23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AK23" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AL23" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AM23" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>199</v>
+      <c r="B24" s="8" t="s">
+        <v>205</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="E24" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H24" s="1" t="n">
         <v>6</v>
@@ -4264,45 +4644,60 @@
         <v>5</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AE24" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AF24" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="AG24" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AH24" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="AI24" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="223.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>207</v>
+      </c>
+      <c r="AE24" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AK24" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AL24" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AM24" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="AN24" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>206</v>
+      <c r="B25" s="8" t="s">
+        <v>212</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>8</v>
@@ -4350,143 +4745,173 @@
         <v>5</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="AC25" s="1" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AD25" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="AE25" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AE25" s="2" t="n">
+        <v>-3</v>
+      </c>
+      <c r="AF25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AK25" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AL25" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AM25" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="AF25" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="AG25" s="1" t="s">
+      <c r="D26" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="AH25" s="6" t="s">
+      <c r="H26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J26" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="U26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z26" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA26" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="188.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B26" s="7" t="s">
+      <c r="AC26" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="E26" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="H26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="J26" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="M26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="O26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P26" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R26" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="U26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="V26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="W26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y26" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z26" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA26" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="AC26" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AE26" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="AF26" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="AG26" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="AH26" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="AI26" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="176.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE26" s="2" t="n">
+        <v>-3</v>
+      </c>
+      <c r="AF26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK26" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AL26" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="AM26" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="AN26" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="140.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>223</v>
+      <c r="B27" s="8" t="s">
+        <v>229</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H27" s="1" t="n">
         <v>3</v>
@@ -4543,27 +4968,42 @@
         <v>6</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="AC27" s="1" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AD27" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="AE27" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AF27" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="AG27" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="AH27" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="AI27" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="AE27" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AK27" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AL27" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="AM27" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="AN27" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4571,1052 +5011,1052 @@
       <c r="A28" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>231</v>
+      <c r="B28" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>237</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E28" s="7" t="n">
+        <v>238</v>
+      </c>
+      <c r="E28" s="8" t="n">
         <v>3</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="AH28" s="6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>239</v>
+      </c>
+      <c r="AM28" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>235</v>
+      <c r="B29" s="8" t="s">
+        <v>241</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E29" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH29" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="AI29" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="AM29" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="AN29" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6"/>
-      <c r="B30" s="7" t="s">
-        <v>237</v>
+      <c r="B30" s="8" t="s">
+        <v>243</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH30" s="6" t="s">
-        <v>238</v>
+        <v>129</v>
+      </c>
+      <c r="AM30" s="6" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6"/>
       <c r="B31" s="6" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6"/>
       <c r="B32" s="6" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6"/>
       <c r="B33" s="6" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E33" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6"/>
       <c r="B34" s="6" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6"/>
       <c r="B35" s="6" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E35" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6"/>
       <c r="B36" s="6" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6"/>
       <c r="B37" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>240</v>
-      </c>
       <c r="D37" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6"/>
       <c r="B38" s="6" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6"/>
       <c r="B39" s="6" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E39" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6"/>
-      <c r="B40" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>250</v>
+      <c r="B40" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>256</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E40" s="7" t="n">
+        <v>238</v>
+      </c>
+      <c r="E40" s="8" t="n">
         <v>6</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6"/>
-      <c r="B41" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>250</v>
+      <c r="B41" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>256</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E41" s="7" t="n">
+        <v>238</v>
+      </c>
+      <c r="E41" s="8" t="n">
         <v>6</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6"/>
-      <c r="B42" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>250</v>
+      <c r="B42" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>256</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E42" s="7" t="n">
+        <v>238</v>
+      </c>
+      <c r="E42" s="8" t="n">
         <v>6</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6"/>
-      <c r="B43" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>250</v>
+      <c r="B43" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>256</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E43" s="7" t="n">
+        <v>238</v>
+      </c>
+      <c r="E43" s="8" t="n">
         <v>6</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6"/>
-      <c r="B44" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>250</v>
+      <c r="B44" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>256</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E44" s="7" t="n">
+        <v>238</v>
+      </c>
+      <c r="E44" s="8" t="n">
         <v>6</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6"/>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>250</v>
-      </c>
       <c r="D45" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E45" s="7" t="n">
+        <v>238</v>
+      </c>
+      <c r="E45" s="8" t="n">
         <v>6</v>
       </c>
       <c r="F45" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="G45" s="6" t="s">
         <v>257</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6"/>
-      <c r="B46" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>250</v>
+      <c r="B46" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>256</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E46" s="7" t="n">
+        <v>238</v>
+      </c>
+      <c r="E46" s="8" t="n">
         <v>6</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6"/>
-      <c r="B47" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>250</v>
+      <c r="B47" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>256</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E47" s="7" t="n">
+        <v>238</v>
+      </c>
+      <c r="E47" s="8" t="n">
         <v>6</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6"/>
-      <c r="B48" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>250</v>
+      <c r="B48" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>256</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E48" s="7" t="n">
+        <v>238</v>
+      </c>
+      <c r="E48" s="8" t="n">
         <v>6</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6"/>
-      <c r="B49" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>250</v>
+      <c r="B49" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>256</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E49" s="7" t="n">
+        <v>238</v>
+      </c>
+      <c r="E49" s="8" t="n">
         <v>6</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6"/>
-      <c r="B50" s="7" t="s">
-        <v>262</v>
+      <c r="B50" s="8" t="s">
+        <v>268</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E50" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6"/>
-      <c r="B51" s="7" t="s">
-        <v>265</v>
+      <c r="B51" s="8" t="s">
+        <v>271</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E51" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6"/>
       <c r="B52" s="6" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E52" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="42.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B53" s="7" t="s">
-        <v>267</v>
+      <c r="B53" s="8" t="s">
+        <v>273</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="E53" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="AH53" s="6" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="108.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>173</v>
+      </c>
+      <c r="AM53" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="93.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B54" s="7" t="s">
-        <v>271</v>
+      <c r="B54" s="8" t="s">
+        <v>277</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="E54" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="AH54" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="88.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>173</v>
+      </c>
+      <c r="AM54" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="72.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>268</v>
-      </c>
       <c r="D55" s="6" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="E55" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="AH55" s="6" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>173</v>
+      </c>
+      <c r="AM55" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="n">
         <v>4</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E56" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="AH56" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="AI56" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>56</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="AM56" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="AN56" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="93.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="n">
         <v>5</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="E57" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="AH57" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="AI57" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="331.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>56</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="AM57" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="AN57" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="318.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="n">
         <v>6</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="E58" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G58" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="AH58" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="AI58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="AM58" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="AN58" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6"/>
-      <c r="B59" s="7" t="s">
-        <v>286</v>
+      <c r="B59" s="8" t="s">
+        <v>292</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E59" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="AH59" s="6"/>
+        <v>173</v>
+      </c>
+      <c r="AM59" s="6"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6"/>
-      <c r="B60" s="7" t="s">
-        <v>288</v>
+      <c r="B60" s="8" t="s">
+        <v>294</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E60" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="AH60" s="6"/>
+        <v>173</v>
+      </c>
+      <c r="AM60" s="6"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6"/>
-      <c r="B61" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>287</v>
+      <c r="B61" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>293</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E61" s="7" t="n">
+        <v>238</v>
+      </c>
+      <c r="E61" s="8" t="n">
         <v>2</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="AH61" s="6"/>
+        <v>173</v>
+      </c>
+      <c r="AM61" s="6"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B62" s="7" t="s">
-        <v>290</v>
+      <c r="B62" s="8" t="s">
+        <v>296</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E62" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="AH62" s="6"/>
+        <v>298</v>
+      </c>
+      <c r="AM62" s="6"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B63" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>291</v>
+      <c r="B63" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>297</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E63" s="7" t="n">
+        <v>238</v>
+      </c>
+      <c r="E63" s="8" t="n">
         <v>6</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH63" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="AM63" s="6"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6"/>
-      <c r="B64" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>295</v>
+      <c r="B64" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>301</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E64" s="7" t="n">
+        <v>238</v>
+      </c>
+      <c r="E64" s="8" t="n">
         <v>1</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH64" s="6"/>
+        <v>129</v>
+      </c>
+      <c r="AM64" s="6"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6"/>
-      <c r="B65" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>295</v>
+      <c r="B65" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>301</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E65" s="7" t="n">
+        <v>238</v>
+      </c>
+      <c r="E65" s="8" t="n">
         <v>5</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH65" s="6"/>
+        <v>129</v>
+      </c>
+      <c r="AM65" s="6"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6"/>
-      <c r="B66" s="7" t="s">
-        <v>297</v>
+      <c r="B66" s="8" t="s">
+        <v>303</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E66" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH66" s="6"/>
+        <v>129</v>
+      </c>
+      <c r="AM66" s="6"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6"/>
-      <c r="B67" s="7" t="s">
-        <v>298</v>
+      <c r="B67" s="8" t="s">
+        <v>304</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E67" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH67" s="6"/>
+        <v>104</v>
+      </c>
+      <c r="AM67" s="6"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6"/>
-      <c r="B68" s="7" t="s">
-        <v>299</v>
+      <c r="B68" s="8" t="s">
+        <v>305</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E68" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="AH68" s="6"/>
+        <v>306</v>
+      </c>
+      <c r="AM68" s="6"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6"/>
-      <c r="B69" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>300</v>
+      <c r="B69" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>306</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E69" s="7" t="n">
+        <v>238</v>
+      </c>
+      <c r="E69" s="8" t="n">
         <v>1</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="AH69" s="6"/>
+        <v>306</v>
+      </c>
+      <c r="AM69" s="6"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6"/>
-      <c r="B70" s="7" t="s">
-        <v>302</v>
+      <c r="B70" s="8" t="s">
+        <v>308</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E70" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="AH70" s="6"/>
-    </row>
-    <row r="71" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>306</v>
+      </c>
+      <c r="AM70" s="6"/>
+    </row>
+    <row r="71" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="n">
         <v>1</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="E71" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="AH71" s="6" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>312</v>
+      </c>
+      <c r="AM71" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="n">
         <v>2</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="E72" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="AH72" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="AM72" s="5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="21.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="C73" s="6" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="73" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>304</v>
-      </c>
       <c r="D73" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="E73" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G73" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="E73" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G73" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="AH73" s="6" t="s">
-        <v>313</v>
+      <c r="AM73" s="6" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5624,696 +6064,696 @@
         <v>4</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E74" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="AH74" s="6" t="s">
-        <v>315</v>
+        <v>312</v>
+      </c>
+      <c r="AM74" s="6" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6"/>
-      <c r="B75" s="7" t="s">
-        <v>316</v>
+      <c r="B75" s="8" t="s">
+        <v>322</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E75" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6"/>
-      <c r="B76" s="7" t="s">
-        <v>318</v>
+      <c r="B76" s="8" t="s">
+        <v>324</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E76" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6"/>
-      <c r="B77" s="7" t="s">
-        <v>319</v>
+      <c r="B77" s="8" t="s">
+        <v>325</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E77" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6"/>
-      <c r="B78" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>321</v>
+      <c r="B78" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>327</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E78" s="7" t="n">
+        <v>238</v>
+      </c>
+      <c r="E78" s="8" t="n">
         <v>2</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6"/>
-      <c r="B79" s="7" t="s">
-        <v>322</v>
+      <c r="B79" s="8" t="s">
+        <v>328</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E79" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6"/>
-      <c r="B80" s="7" t="s">
-        <v>323</v>
+      <c r="B80" s="8" t="s">
+        <v>329</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E80" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6"/>
-      <c r="B81" s="7" t="s">
-        <v>324</v>
+      <c r="B81" s="8" t="s">
+        <v>330</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E81" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6"/>
-      <c r="B82" s="7" t="s">
-        <v>326</v>
+      <c r="B82" s="8" t="s">
+        <v>332</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E82" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6"/>
-      <c r="B83" s="7" t="s">
-        <v>327</v>
+      <c r="B83" s="8" t="s">
+        <v>333</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E83" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6"/>
-      <c r="B84" s="7" t="s">
-        <v>328</v>
+      <c r="B84" s="8" t="s">
+        <v>334</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E84" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6"/>
       <c r="B85" s="6" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E85" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6"/>
-      <c r="B86" s="7" t="s">
-        <v>330</v>
+      <c r="B86" s="8" t="s">
+        <v>336</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E86" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6"/>
-      <c r="B87" s="7" t="s">
-        <v>332</v>
+      <c r="B87" s="8" t="s">
+        <v>338</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E87" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6"/>
-      <c r="B88" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>334</v>
+      <c r="B88" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>340</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E88" s="7" t="n">
+        <v>238</v>
+      </c>
+      <c r="E88" s="8" t="n">
         <v>3</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6"/>
-      <c r="B89" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>334</v>
+      <c r="B89" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>340</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E89" s="7" t="n">
+        <v>238</v>
+      </c>
+      <c r="E89" s="8" t="n">
         <v>2</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6"/>
-      <c r="B90" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>334</v>
+      <c r="B90" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>340</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E90" s="7" t="n">
+        <v>238</v>
+      </c>
+      <c r="E90" s="8" t="n">
         <v>5</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6"/>
-      <c r="B91" s="7" t="s">
-        <v>337</v>
+      <c r="B91" s="8" t="s">
+        <v>343</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E91" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6"/>
-      <c r="B92" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>339</v>
+      <c r="B92" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>345</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E92" s="7" t="n">
+        <v>238</v>
+      </c>
+      <c r="E92" s="8" t="n">
         <v>4</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6"/>
-      <c r="B93" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>339</v>
+      <c r="B93" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>345</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E93" s="7" t="n">
+        <v>238</v>
+      </c>
+      <c r="E93" s="8" t="n">
         <v>4</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6"/>
       <c r="B94" s="6" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E94" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6"/>
-      <c r="B95" s="7" t="s">
-        <v>342</v>
+      <c r="B95" s="8" t="s">
+        <v>348</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E95" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6"/>
-      <c r="B96" s="7" t="s">
-        <v>344</v>
+      <c r="B96" s="8" t="s">
+        <v>350</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E96" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6"/>
-      <c r="B97" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>343</v>
+      <c r="B97" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>349</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E97" s="7" t="n">
+        <v>238</v>
+      </c>
+      <c r="E97" s="8" t="n">
         <v>3</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6"/>
-      <c r="B98" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>343</v>
+      <c r="B98" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>349</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E98" s="7" t="n">
+        <v>238</v>
+      </c>
+      <c r="E98" s="8" t="n">
         <v>3</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="6"/>
-      <c r="B99" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>343</v>
+      <c r="B99" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>349</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E99" s="7" t="n">
+        <v>238</v>
+      </c>
+      <c r="E99" s="8" t="n">
         <v>0</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="6"/>
-      <c r="B100" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>343</v>
+      <c r="B100" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>349</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E100" s="7" t="n">
+        <v>238</v>
+      </c>
+      <c r="E100" s="8" t="n">
         <v>1</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6"/>
-      <c r="B101" s="7" t="s">
+      <c r="B101" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="C101" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="C101" s="6" t="s">
-        <v>343</v>
-      </c>
       <c r="D101" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E101" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="52.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B102" s="7" t="s">
-        <v>350</v>
+      <c r="B102" s="8" t="s">
+        <v>356</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="E102" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="88.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="83.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B103" s="7" t="s">
-        <v>353</v>
+      <c r="B103" s="8" t="s">
+        <v>359</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="E103" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH103" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="AI103" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>104</v>
+      </c>
+      <c r="AM103" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="AN103" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="124.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B104" s="7" t="s">
-        <v>356</v>
+      <c r="B104" s="8" t="s">
+        <v>362</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E104" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="AH104" s="6"/>
-    </row>
-    <row r="105" customFormat="false" ht="428.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>331</v>
+      </c>
+      <c r="AM104" s="6"/>
+    </row>
+    <row r="105" customFormat="false" ht="420.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B105" s="7" t="s">
-        <v>358</v>
+      <c r="B105" s="8" t="s">
+        <v>364</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="E105" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="AH105" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="AI105" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="AM105" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="AN105" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6322,22 +6762,22 @@
         <v>1</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="E106" s="1" t="n">
         <v>3</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="H106" s="1" t="n">
         <v>1</v>
@@ -6391,51 +6831,66 @@
         <v>2</v>
       </c>
       <c r="AA106" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="AB106" s="1" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AC106" s="1" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="AD106" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="AE106" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="AF106" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="AG106" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AE106" s="2" t="n">
+        <v>-3</v>
+      </c>
+      <c r="AF106" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG106" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH106" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI106" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ106" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="AK106" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="AL106" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="AM106" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="AH106" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="71.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>362</v>
-      </c>
       <c r="D107" s="6" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="E107" s="1" t="n">
         <v>4</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="H107" s="1" t="n">
         <v>6</v>
@@ -6483,51 +6938,66 @@
         <v>3</v>
       </c>
       <c r="AA107" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="AB107" s="1" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="AD107" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="AE107" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="AF107" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="AG107" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="AH107" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="AI107" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="221.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>371</v>
+      </c>
+      <c r="AE107" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF107" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG107" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH107" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI107" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ107" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AK107" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="AL107" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AM107" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="AN107" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="185.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="E108" s="1" t="n">
         <v>5</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="H108" s="1" t="n">
         <v>3</v>
@@ -6584,1238 +7054,1253 @@
         <v>4</v>
       </c>
       <c r="AA108" s="1" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="AD108" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="AE108" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="AF108" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="AG108" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="AH108" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="AI108" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>371</v>
+      </c>
+      <c r="AE108" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF108" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG108" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH108" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI108" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ108" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="AK108" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="AL108" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="AM108" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="AN108" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="6"/>
-      <c r="B109" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>385</v>
+      <c r="B109" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>391</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E109" s="7" t="n">
+        <v>238</v>
+      </c>
+      <c r="E109" s="8" t="n">
         <v>2</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH109" s="6"/>
-    </row>
-    <row r="110" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>129</v>
+      </c>
+      <c r="AM109" s="6"/>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="6"/>
-      <c r="B110" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>385</v>
+      <c r="B110" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>391</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E110" s="7" t="n">
+        <v>238</v>
+      </c>
+      <c r="E110" s="8" t="n">
         <v>2</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH110" s="6"/>
-    </row>
-    <row r="111" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>129</v>
+      </c>
+      <c r="AM110" s="6"/>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6"/>
-      <c r="B111" s="7" t="s">
-        <v>387</v>
+      <c r="B111" s="8" t="s">
+        <v>393</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E111" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH111" s="6"/>
-    </row>
-    <row r="112" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>129</v>
+      </c>
+      <c r="AM111" s="6"/>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6"/>
-      <c r="B112" s="7" t="s">
-        <v>388</v>
+      <c r="B112" s="8" t="s">
+        <v>394</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E112" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH112" s="6"/>
-    </row>
-    <row r="113" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>129</v>
+      </c>
+      <c r="AM112" s="6"/>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6"/>
-      <c r="B113" s="7" t="s">
-        <v>389</v>
+      <c r="B113" s="8" t="s">
+        <v>395</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E113" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH113" s="6"/>
-    </row>
-    <row r="114" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>129</v>
+      </c>
+      <c r="AM113" s="6"/>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="6"/>
-      <c r="B114" s="7" t="s">
-        <v>390</v>
+      <c r="B114" s="8" t="s">
+        <v>396</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E114" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH114" s="6"/>
+        <v>129</v>
+      </c>
+      <c r="AM114" s="6"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6"/>
-      <c r="B115" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>391</v>
+      <c r="B115" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>397</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E115" s="7" t="n">
+        <v>238</v>
+      </c>
+      <c r="E115" s="8" t="n">
         <v>6</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH115" s="6"/>
-    </row>
-    <row r="116" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>47</v>
+      </c>
+      <c r="AM115" s="6"/>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6"/>
-      <c r="B116" s="7" t="s">
-        <v>392</v>
+      <c r="B116" s="8" t="s">
+        <v>398</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E116" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH116" s="6"/>
-    </row>
-    <row r="117" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>129</v>
+      </c>
+      <c r="AM116" s="6"/>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6"/>
-      <c r="B117" s="7" t="s">
-        <v>394</v>
+      <c r="B117" s="8" t="s">
+        <v>400</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E117" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH117" s="6"/>
+        <v>129</v>
+      </c>
+      <c r="AM117" s="6"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6"/>
-      <c r="B118" s="7" t="s">
-        <v>395</v>
+      <c r="B118" s="8" t="s">
+        <v>401</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E118" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH118" s="6"/>
+        <v>129</v>
+      </c>
+      <c r="AM118" s="6"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6"/>
-      <c r="B119" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="C119" s="7" t="s">
-        <v>397</v>
+      <c r="B119" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>403</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E119" s="7" t="n">
+        <v>238</v>
+      </c>
+      <c r="E119" s="8" t="n">
         <v>3</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="AH119" s="6"/>
+        <v>312</v>
+      </c>
+      <c r="AM119" s="6"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6"/>
-      <c r="B120" s="7" t="s">
-        <v>398</v>
+      <c r="B120" s="8" t="s">
+        <v>404</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E120" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="AH120" s="6"/>
+        <v>312</v>
+      </c>
+      <c r="AM120" s="6"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6"/>
-      <c r="B121" s="7" t="s">
-        <v>399</v>
+      <c r="B121" s="8" t="s">
+        <v>405</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E121" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="AH121" s="6"/>
+        <v>312</v>
+      </c>
+      <c r="AM121" s="6"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6"/>
-      <c r="B122" s="7" t="s">
-        <v>400</v>
+      <c r="B122" s="8" t="s">
+        <v>406</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E122" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH122" s="6"/>
-    </row>
-    <row r="123" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>47</v>
+      </c>
+      <c r="AM122" s="6"/>
+    </row>
+    <row r="123" customFormat="false" ht="21.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6"/>
-      <c r="B123" s="7" t="s">
-        <v>402</v>
+      <c r="B123" s="8" t="s">
+        <v>408</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="E123" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH123" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="AI123" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="AM123" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="AN123" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6"/>
-      <c r="B124" s="7" t="s">
-        <v>405</v>
+      <c r="B124" s="8" t="s">
+        <v>411</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E124" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH124" s="6"/>
-    </row>
-    <row r="125" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>47</v>
+      </c>
+      <c r="AM124" s="6"/>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6"/>
-      <c r="B125" s="7" t="s">
-        <v>406</v>
+      <c r="B125" s="8" t="s">
+        <v>412</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E125" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH125" s="6"/>
-    </row>
-    <row r="126" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>129</v>
+      </c>
+      <c r="AM125" s="6"/>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6"/>
-      <c r="B126" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="C126" s="7" t="s">
-        <v>407</v>
+      <c r="B126" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>413</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E126" s="7" t="n">
+        <v>238</v>
+      </c>
+      <c r="E126" s="8" t="n">
         <v>2</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH126" s="6"/>
-    </row>
-    <row r="127" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>129</v>
+      </c>
+      <c r="AM126" s="6"/>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="6"/>
-      <c r="B127" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="C127" s="7" t="s">
-        <v>407</v>
+      <c r="B127" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>413</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E127" s="7" t="n">
+        <v>238</v>
+      </c>
+      <c r="E127" s="8" t="n">
         <v>1</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH127" s="6"/>
-    </row>
-    <row r="128" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>129</v>
+      </c>
+      <c r="AM127" s="6"/>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6"/>
-      <c r="B128" s="7" t="s">
-        <v>410</v>
+      <c r="B128" s="8" t="s">
+        <v>416</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E128" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH128" s="6"/>
+        <v>129</v>
+      </c>
+      <c r="AM128" s="6"/>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6"/>
-      <c r="B129" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="C129" s="7" t="s">
-        <v>412</v>
+      <c r="B129" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>418</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E129" s="7" t="n">
+        <v>238</v>
+      </c>
+      <c r="E129" s="8" t="n">
         <v>4</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH129" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="AM129" s="6"/>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6"/>
-      <c r="B130" s="7" t="s">
-        <v>413</v>
+      <c r="B130" s="8" t="s">
+        <v>419</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E130" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH130" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="AM130" s="6"/>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="6"/>
-      <c r="B131" s="7" t="s">
-        <v>414</v>
+      <c r="B131" s="8" t="s">
+        <v>420</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E131" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH131" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="AM131" s="6"/>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6"/>
-      <c r="B132" s="7" t="s">
-        <v>415</v>
+      <c r="B132" s="8" t="s">
+        <v>421</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E132" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH132" s="6"/>
+        <v>129</v>
+      </c>
+      <c r="AM132" s="6"/>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6"/>
-      <c r="B133" s="7" t="s">
-        <v>417</v>
+      <c r="B133" s="8" t="s">
+        <v>423</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E133" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH133" s="6"/>
+        <v>129</v>
+      </c>
+      <c r="AM133" s="6"/>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="6"/>
-      <c r="B134" s="7" t="s">
-        <v>418</v>
+      <c r="B134" s="8" t="s">
+        <v>424</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E134" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH134" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="AM134" s="6"/>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="6"/>
-      <c r="B135" s="7" t="s">
-        <v>419</v>
+      <c r="B135" s="8" t="s">
+        <v>425</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E135" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="AH135" s="6"/>
+        <v>427</v>
+      </c>
+      <c r="AM135" s="6"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6"/>
       <c r="B136" s="6" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E136" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="AH136" s="6"/>
+        <v>427</v>
+      </c>
+      <c r="AM136" s="6"/>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="6"/>
-      <c r="B137" s="7" t="s">
-        <v>423</v>
+      <c r="B137" s="8" t="s">
+        <v>429</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E137" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AH137" s="6"/>
+        <v>156</v>
+      </c>
+      <c r="AM137" s="6"/>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="6"/>
-      <c r="B138" s="7" t="s">
-        <v>425</v>
+      <c r="B138" s="8" t="s">
+        <v>431</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E138" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="AH138" s="6"/>
+        <v>270</v>
+      </c>
+      <c r="AM138" s="6"/>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="6"/>
-      <c r="B139" s="7" t="s">
-        <v>427</v>
+      <c r="B139" s="8" t="s">
+        <v>433</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E139" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="AH139" s="6"/>
+        <v>270</v>
+      </c>
+      <c r="AM139" s="6"/>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="6"/>
-      <c r="B140" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="C140" s="7" t="s">
-        <v>426</v>
+      <c r="B140" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>432</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E140" s="7" t="n">
+        <v>238</v>
+      </c>
+      <c r="E140" s="8" t="n">
         <v>3</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="AH140" s="6"/>
+        <v>270</v>
+      </c>
+      <c r="AM140" s="6"/>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="6"/>
-      <c r="B141" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="C141" s="7" t="s">
-        <v>426</v>
+      <c r="B141" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>432</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E141" s="7" t="n">
+        <v>238</v>
+      </c>
+      <c r="E141" s="8" t="n">
         <v>1</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="AH141" s="6"/>
-    </row>
-    <row r="142" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>270</v>
+      </c>
+      <c r="AM141" s="6"/>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="6"/>
-      <c r="B142" s="7" t="s">
-        <v>430</v>
+      <c r="B142" s="8" t="s">
+        <v>436</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E142" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AH142" s="6"/>
-    </row>
-    <row r="143" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>156</v>
+      </c>
+      <c r="AM142" s="6"/>
+    </row>
+    <row r="143" customFormat="false" ht="62.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B143" s="7" t="s">
-        <v>432</v>
+      <c r="B143" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="E143" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G143" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="AH143" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="AI143" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="51.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>215</v>
+      </c>
+      <c r="AM143" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="AN143" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="42.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="11" t="n">
         <v>2</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="E144" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="AH144" s="6" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>215</v>
+      </c>
+      <c r="AM144" s="6" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="11" t="n">
         <v>3</v>
       </c>
       <c r="B145" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="C145" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="C145" s="6" t="s">
-        <v>433</v>
-      </c>
       <c r="D145" s="6" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="E145" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F145" s="6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G145" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="AH145" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="AI145" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="234.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>215</v>
+      </c>
+      <c r="AM145" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="AN145" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="11" t="n">
         <v>4</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="E146" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="AH146" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="AI146" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="253.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>215</v>
+      </c>
+      <c r="AM146" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="AN146" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="226.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="11" t="n">
         <v>5</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="E147" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F147" s="6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="AH147" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="AI147" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="AM147" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="AN147" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="6"/>
-      <c r="B148" s="7" t="s">
-        <v>448</v>
+      <c r="B148" s="8" t="s">
+        <v>454</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E148" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH148" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="AM148" s="6"/>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="6"/>
-      <c r="B149" s="7" t="s">
-        <v>449</v>
+      <c r="B149" s="8" t="s">
+        <v>455</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E149" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="AH149" s="6"/>
+        <v>270</v>
+      </c>
+      <c r="AM149" s="6"/>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="6"/>
-      <c r="B150" s="7" t="s">
-        <v>450</v>
+      <c r="B150" s="8" t="s">
+        <v>456</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E150" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G150" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="AH150" s="6"/>
+        <v>306</v>
+      </c>
+      <c r="AM150" s="6"/>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="6"/>
-      <c r="B151" s="7" t="s">
-        <v>452</v>
+      <c r="B151" s="8" t="s">
+        <v>458</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E151" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G151" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH151" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="AM151" s="6"/>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="6"/>
-      <c r="B152" s="7" t="s">
-        <v>454</v>
+      <c r="B152" s="8" t="s">
+        <v>460</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E152" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G152" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH152" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="AM152" s="6"/>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="6"/>
-      <c r="B153" s="7" t="s">
-        <v>455</v>
+      <c r="B153" s="8" t="s">
+        <v>461</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E153" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G153" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH153" s="6"/>
+        <v>104</v>
+      </c>
+      <c r="AM153" s="6"/>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="6"/>
-      <c r="B154" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="C154" s="7" t="s">
-        <v>457</v>
+      <c r="B154" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>463</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E154" s="7" t="n">
+        <v>238</v>
+      </c>
+      <c r="E154" s="8" t="n">
         <v>3</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AH154" s="6" t="s">
-        <v>458</v>
+        <v>156</v>
+      </c>
+      <c r="AM154" s="6" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="6"/>
-      <c r="B155" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="C155" s="7" t="s">
-        <v>457</v>
+      <c r="B155" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>463</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E155" s="7" t="n">
+        <v>238</v>
+      </c>
+      <c r="E155" s="8" t="n">
         <v>4</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G155" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AH155" s="6" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>156</v>
+      </c>
+      <c r="AM155" s="6" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="6"/>
-      <c r="B156" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="C156" s="7" t="s">
-        <v>457</v>
+      <c r="B156" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>463</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E156" s="7" t="n">
+        <v>238</v>
+      </c>
+      <c r="E156" s="8" t="n">
         <v>5</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AH156" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="AI156" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="AM156" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="AN156" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="6"/>
       <c r="B157" s="6" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E157" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F157" s="6" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="AH157" s="6"/>
+        <v>331</v>
+      </c>
+      <c r="AM157" s="6"/>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="6"/>
       <c r="B158" s="6" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E158" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F158" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH158" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="AM158" s="6"/>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="6"/>
-      <c r="B159" s="7" t="s">
-        <v>466</v>
+      <c r="B159" s="8" t="s">
+        <v>472</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E159" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F159" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G159" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="AH159" s="6"/>
+        <v>257</v>
+      </c>
+      <c r="AM159" s="6"/>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="6"/>
-      <c r="B160" s="7" t="s">
-        <v>468</v>
+      <c r="B160" s="8" t="s">
+        <v>474</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E160" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G160" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="AH160" s="6"/>
-    </row>
-    <row r="161" customFormat="false" ht="95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>257</v>
+      </c>
+      <c r="AM160" s="6"/>
+    </row>
+    <row r="161" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="E161" s="1" t="n">
         <v>3</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="H161" s="1" t="n">
         <v>1</v>
@@ -7866,42 +8351,57 @@
         <v>1</v>
       </c>
       <c r="AA161" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="AE161" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="AF161" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="AG161" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="AH161" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="AE161" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF161" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG161" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH161" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI161" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ161" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="AK161" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="AL161" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="AM161" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C162" s="1" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="162" customFormat="false" ht="223.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>470</v>
-      </c>
       <c r="D162" s="1" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="E162" s="1" t="n">
         <v>5</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="H162" s="1" t="n">
         <v>7</v>
@@ -7952,45 +8452,60 @@
         <v>5</v>
       </c>
       <c r="AA162" s="1" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="AB162" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AE162" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="AF162" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="AG162" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="AH162" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="176.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>165</v>
+      </c>
+      <c r="AE162" s="2" t="n">
+        <v>-3</v>
+      </c>
+      <c r="AF162" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG162" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH162" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI162" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ162" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="AK162" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="AL162" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="AM162" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="E163" s="1" t="n">
         <v>5</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="H163" s="1" t="n">
         <v>5</v>
@@ -8047,48 +8562,63 @@
         <v>5</v>
       </c>
       <c r="AA163" s="1" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="AD163" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="AE163" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="AF163" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="AG163" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="AH163" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="AE163" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF163" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG163" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH163" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI163" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ163" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="AK163" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="AL163" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="AM163" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="AN163" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C164" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="AI163" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>484</v>
-      </c>
       <c r="D164" s="1" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="E164" s="1" t="n">
         <v>5</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="H164" s="1" t="n">
         <v>4</v>
@@ -8145,48 +8675,60 @@
         <v>6</v>
       </c>
       <c r="AA164" s="1" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="AD164" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="AE164" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="AF164" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="AG164" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="AH164" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="AI164" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="152" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>500</v>
+      </c>
+      <c r="AE164" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF164" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG164" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH164" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI164" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ164" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="AK164" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="AL164" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="AM164" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="E165" s="1" t="n">
         <v>6</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="H165" s="1" t="n">
         <v>3</v>
@@ -8243,27 +8785,42 @@
         <v>6</v>
       </c>
       <c r="AA165" s="1" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="AB165" s="1" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="AD165" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="AE165" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="AF165" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="AG165" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="AE165" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF165" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG165" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH165" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI165" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ165" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="AK165" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="AL165" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="AM165" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="AH165" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="AI165" s="1" t="n">
+      <c r="AN165" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8272,22 +8829,22 @@
         <v>4</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="E166" s="1" t="n">
         <v>4</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="H166" s="1" t="n">
         <v>3</v>
@@ -8338,24 +8895,39 @@
         <v>4</v>
       </c>
       <c r="AD166" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="AE166" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="AF166" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="AG166" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="AH166" s="1" t="s">
-        <v>510</v>
+        <v>500</v>
+      </c>
+      <c r="AE166" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF166" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG166" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH166" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI166" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ166" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="AK166" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="AL166" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="AM166" s="1" t="s">
+        <v>516</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AI160"/>
-  <mergeCells count="8">
+  <autoFilter ref="A2:AN160"/>
+  <mergeCells count="9">
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
@@ -8364,6 +8936,7 @@
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:W1"/>
+    <mergeCell ref="AE1:AI1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/GameMasterGuide/Data/Beasts/beasts.xlsx
+++ b/GameMasterGuide/Data/Beasts/beasts.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="524">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -218,25 +218,9 @@
 \ranged{Websac}{10}{6}{0}{Trapped Status}{1 + Successes}</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">\skill{Inhuman Senses}{5}
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">\skill{Covert}{4}
+    <t xml:space="preserve">\skill{Inhuman Senses}{5}
+\skill{Covert}{4}
 \skill{Strength}{3}</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">\ability{Webwalker}{\article{} \name{} takes no movement penalty on webbed surfaces, and uses their \imp{Inhuman Senses} to sense vibrations in their webs.}
@@ -413,9 +397,9 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">\ability{Walk Among Mortals}{A \name{} may use their \imp{Shapechange} ability to take on a human form, hiding their wings. However, they remain almost supernaturally beautiful appearances.}
+    <t xml:space="preserve">\ability{Walk Among Mortals}{\article{} \name{} may use their \imp{Shapechange} ability to take on a human form, hiding their wings. However, they remain almost supernaturally beautiful appearances.}
 \ability{Light in the Darkness}{If the target of an attack has more than one rating in \imp{Villainy}, or has used a \imp{Dark Arts} spell in the past 24 hours, the \name{} gets +3d for all attacks against them.}
-\ability{Master of Mind and Body}{A \name{} is immune to spells which would alter its mind or perception of reality, and it cannot have its form altered by magic unless it wishes to.}
+\ability{Master of Mind and Body}{\article{} \name{} is immune to spells which would alter its mind or perception of reality, and it cannot have its form altered by magic unless it wishes to.}
 </t>
   </si>
   <si>
@@ -1676,6 +1660,34 @@
   </si>
   <si>
     <t xml:space="preserve">Trees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A \name{} is an extremely rare species of articulated plant life. Though their thoughts are utterly alien and untouchable by wizardkind, it has long been recognised that these incredible plants are in fact sentient creatures – capable of independent, imaginative thought and complex processing of information. 
+Further study of this unusual form of life has been hampered, however, by the fact that \name{} are, without exception, {\it incredibly} violent– even saplings of the species have been known to break an arm. 
+The sole saving grace of a \name{} is that they are incapable of uprooting themselves – so simply running away is always a viable option. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The \imp{Asleep, Blinded, Charmed, Confused, Deaf, Prone} and \imp{Unconscious} status effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All \imp{physical} damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Flail}{The \name{} makes a \imp{Whomp} attack using each of its remaining arms}
+\extendedmeleeConsequence{Whomp}{3}{-1}{Bludgeoning}{4 + Successes}{Any target taking damage from this attack is knocked prone}{6}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\skill{Strength}{6}
+\skill{Regeneration}{2}
+\skill{Nature}{3}
+\skill{Logic}{5}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Photosynthesis}{Whilst in direct sunlight, a \name{} uses rolls a DV 5 \imp{Regeneration} check at the end of each combat cycle, restoring health equal to 1 + successes}
+\ability{Multi-armed}{A \name{} has 4 arms used for attacks. A \imp{called shot} against an arm forces it to perform a \imp{Vitality} check, with a DV equal to 5 + the damage dealt. On a failure, the arm is detached and cannot be used. Arms regrow after 1 week.}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">whomp</t>
   </si>
   <si>
     <t xml:space="preserve">Bicorn</t>
@@ -1920,7 +1932,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1948,11 +1960,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2026,7 +2033,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2055,12 +2062,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -2068,10 +2075,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2099,11 +2102,11 @@
   <dimension ref="A1:AN166"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AD16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E147" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AD1" activeCellId="0" sqref="AD1"/>
-      <selection pane="bottomLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="AE19" activeCellId="0" sqref="AE19"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A147" activeCellId="0" sqref="A147"/>
+      <selection pane="bottomRight" activeCell="F151" activeCellId="0" sqref="F151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2116,10 +2119,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="14.66"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="25.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="2" width="7.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="2" width="7.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="2" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="2" width="11.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="2" width="10.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="2" width="10.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="2" width="9.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="44.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="22.38"/>
@@ -2166,13 +2169,13 @@
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
-      <c r="AE1" s="4" t="s">
+      <c r="AE1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="4"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
@@ -2494,7 +2497,7 @@
       <c r="AJ4" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AK4" s="7" t="s">
+      <c r="AK4" s="5" t="s">
         <v>61</v>
       </c>
       <c r="AL4" s="1" t="s">
@@ -2624,7 +2627,7 @@
       <c r="A6" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>69</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -2740,7 +2743,7 @@
       <c r="A7" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>82</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -2862,7 +2865,7 @@
       <c r="A8" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>88</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -2978,7 +2981,7 @@
       <c r="A9" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>95</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -3066,7 +3069,7 @@
         <v>77</v>
       </c>
       <c r="AE9" s="2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF9" s="2" t="n">
         <v>0</v>
@@ -3100,7 +3103,7 @@
       <c r="A10" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>101</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -3195,7 +3198,7 @@
       <c r="A11" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>111</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -3302,7 +3305,7 @@
       <c r="A12" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>118</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -3397,7 +3400,7 @@
       <c r="A13" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>125</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -3504,7 +3507,7 @@
       <c r="A14" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>134</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -3605,7 +3608,7 @@
       <c r="A15" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>140</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -3712,7 +3715,7 @@
       <c r="A16" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>147</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -3814,7 +3817,7 @@
       <c r="AK16" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AL16" s="9" t="s">
+      <c r="AL16" s="8" t="s">
         <v>151</v>
       </c>
       <c r="AM16" s="6" t="s">
@@ -3825,7 +3828,7 @@
       <c r="A17" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>153</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -3918,7 +3921,7 @@
       <c r="AK17" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AL17" s="9" t="s">
+      <c r="AL17" s="8" t="s">
         <v>160</v>
       </c>
       <c r="AM17" s="6" t="s">
@@ -3929,7 +3932,7 @@
       <c r="A18" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>162</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -4045,7 +4048,7 @@
       <c r="A19" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>170</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -4146,7 +4149,7 @@
       <c r="A20" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>180</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -4253,16 +4256,16 @@
       <c r="A21" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>187</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="E21" s="8" t="n">
+      <c r="E21" s="7" t="n">
         <v>4</v>
       </c>
       <c r="F21" s="6" t="s">
@@ -4357,16 +4360,16 @@
       <c r="A22" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>187</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="E22" s="8" t="n">
+      <c r="E22" s="7" t="n">
         <v>5</v>
       </c>
       <c r="F22" s="6" t="s">
@@ -4467,7 +4470,7 @@
       <c r="A23" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>199</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -4571,7 +4574,7 @@
       <c r="A24" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>205</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -4681,7 +4684,7 @@
       <c r="A25" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>212</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -4785,7 +4788,7 @@
       <c r="A26" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>223</v>
       </c>
       <c r="C26" s="6" t="s">
@@ -4895,7 +4898,7 @@
       <c r="A27" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>229</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -5011,16 +5014,16 @@
       <c r="A28" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="7" t="s">
         <v>237</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="E28" s="8" t="n">
+      <c r="E28" s="7" t="n">
         <v>3</v>
       </c>
       <c r="F28" s="6" t="s">
@@ -5037,7 +5040,7 @@
       <c r="A29" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>241</v>
       </c>
       <c r="C29" s="6" t="s">
@@ -5064,7 +5067,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6"/>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>243</v>
       </c>
       <c r="C30" s="6" t="s">
@@ -5277,16 +5280,16 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6"/>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="7" t="s">
         <v>256</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="E40" s="8" t="n">
+      <c r="E40" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F40" s="6" t="s">
@@ -5298,16 +5301,16 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6"/>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="7" t="s">
         <v>256</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="E41" s="8" t="n">
+      <c r="E41" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F41" s="6" t="s">
@@ -5319,16 +5322,16 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6"/>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="7" t="s">
         <v>256</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="E42" s="8" t="n">
+      <c r="E42" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F42" s="6" t="s">
@@ -5340,16 +5343,16 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6"/>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="7" t="s">
         <v>256</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="E43" s="8" t="n">
+      <c r="E43" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F43" s="6" t="s">
@@ -5361,16 +5364,16 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6"/>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="7" t="s">
         <v>256</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="E44" s="8" t="n">
+      <c r="E44" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F44" s="6" t="s">
@@ -5382,16 +5385,16 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6"/>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="7" t="s">
         <v>256</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="E45" s="8" t="n">
+      <c r="E45" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F45" s="6" t="s">
@@ -5403,16 +5406,16 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6"/>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="7" t="s">
         <v>256</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="E46" s="8" t="n">
+      <c r="E46" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F46" s="6" t="s">
@@ -5424,16 +5427,16 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6"/>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="7" t="s">
         <v>256</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="E47" s="8" t="n">
+      <c r="E47" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F47" s="6" t="s">
@@ -5445,16 +5448,16 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6"/>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="7" t="s">
         <v>256</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="E48" s="8" t="n">
+      <c r="E48" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F48" s="6" t="s">
@@ -5466,16 +5469,16 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6"/>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="7" t="s">
         <v>256</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="E49" s="8" t="n">
+      <c r="E49" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F49" s="6" t="s">
@@ -5487,7 +5490,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6"/>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="7" t="s">
         <v>268</v>
       </c>
       <c r="C50" s="6" t="s">
@@ -5508,7 +5511,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6"/>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="7" t="s">
         <v>271</v>
       </c>
       <c r="C51" s="6" t="s">
@@ -5552,7 +5555,7 @@
       <c r="A53" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="7" t="s">
         <v>273</v>
       </c>
       <c r="C53" s="6" t="s">
@@ -5578,7 +5581,7 @@
       <c r="A54" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="7" t="s">
         <v>277</v>
       </c>
       <c r="C54" s="6" t="s">
@@ -5604,7 +5607,7 @@
       <c r="A55" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="7" t="s">
         <v>280</v>
       </c>
       <c r="C55" s="6" t="s">
@@ -5645,7 +5648,7 @@
       <c r="F56" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G56" s="10" t="s">
+      <c r="G56" s="9" t="s">
         <v>173</v>
       </c>
       <c r="AM56" s="6" t="s">
@@ -5674,7 +5677,7 @@
       <c r="F57" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G57" s="10" t="s">
+      <c r="G57" s="9" t="s">
         <v>173</v>
       </c>
       <c r="AM57" s="6" t="s">
@@ -5703,7 +5706,7 @@
       <c r="F58" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G58" s="10" t="s">
+      <c r="G58" s="9" t="s">
         <v>239</v>
       </c>
       <c r="AM58" s="6" t="s">
@@ -5715,7 +5718,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6"/>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="7" t="s">
         <v>292</v>
       </c>
       <c r="C59" s="6" t="s">
@@ -5737,7 +5740,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6"/>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="7" t="s">
         <v>294</v>
       </c>
       <c r="C60" s="6" t="s">
@@ -5759,16 +5762,16 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6"/>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="7" t="s">
         <v>293</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="E61" s="8" t="n">
+      <c r="E61" s="7" t="n">
         <v>2</v>
       </c>
       <c r="F61" s="6" t="s">
@@ -5783,7 +5786,7 @@
       <c r="A62" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="7" t="s">
         <v>296</v>
       </c>
       <c r="C62" s="6" t="s">
@@ -5807,16 +5810,16 @@
       <c r="A63" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="7" t="s">
         <v>297</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="E63" s="8" t="n">
+      <c r="E63" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F63" s="6" t="s">
@@ -5829,16 +5832,16 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6"/>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="7" t="s">
         <v>301</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="E64" s="8" t="n">
+      <c r="E64" s="7" t="n">
         <v>1</v>
       </c>
       <c r="F64" s="6" t="s">
@@ -5851,16 +5854,16 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6"/>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="7" t="s">
         <v>301</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="E65" s="8" t="n">
+      <c r="E65" s="7" t="n">
         <v>5</v>
       </c>
       <c r="F65" s="6" t="s">
@@ -5873,7 +5876,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6"/>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="7" t="s">
         <v>303</v>
       </c>
       <c r="C66" s="6" t="s">
@@ -5895,7 +5898,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6"/>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="7" t="s">
         <v>304</v>
       </c>
       <c r="C67" s="6" t="s">
@@ -5917,7 +5920,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6"/>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="7" t="s">
         <v>305</v>
       </c>
       <c r="C68" s="6" t="s">
@@ -5939,16 +5942,16 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6"/>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="7" t="s">
         <v>306</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="E69" s="8" t="n">
+      <c r="E69" s="7" t="n">
         <v>1</v>
       </c>
       <c r="F69" s="6" t="s">
@@ -5961,7 +5964,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6"/>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="7" t="s">
         <v>308</v>
       </c>
       <c r="C70" s="6" t="s">
@@ -6087,7 +6090,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6"/>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="7" t="s">
         <v>322</v>
       </c>
       <c r="C75" s="6" t="s">
@@ -6108,7 +6111,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6"/>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="7" t="s">
         <v>324</v>
       </c>
       <c r="C76" s="6" t="s">
@@ -6129,7 +6132,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6"/>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="7" t="s">
         <v>325</v>
       </c>
       <c r="C77" s="6" t="s">
@@ -6150,16 +6153,16 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6"/>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C78" s="7" t="s">
         <v>327</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="E78" s="8" t="n">
+      <c r="E78" s="7" t="n">
         <v>2</v>
       </c>
       <c r="F78" s="6" t="s">
@@ -6171,7 +6174,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6"/>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="7" t="s">
         <v>328</v>
       </c>
       <c r="C79" s="6" t="s">
@@ -6192,7 +6195,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6"/>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="7" t="s">
         <v>329</v>
       </c>
       <c r="C80" s="6" t="s">
@@ -6213,7 +6216,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6"/>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="7" t="s">
         <v>330</v>
       </c>
       <c r="C81" s="6" t="s">
@@ -6234,7 +6237,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6"/>
-      <c r="B82" s="8" t="s">
+      <c r="B82" s="7" t="s">
         <v>332</v>
       </c>
       <c r="C82" s="6" t="s">
@@ -6255,7 +6258,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6"/>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="7" t="s">
         <v>333</v>
       </c>
       <c r="C83" s="6" t="s">
@@ -6276,7 +6279,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6"/>
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="7" t="s">
         <v>334</v>
       </c>
       <c r="C84" s="6" t="s">
@@ -6318,7 +6321,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6"/>
-      <c r="B86" s="8" t="s">
+      <c r="B86" s="7" t="s">
         <v>336</v>
       </c>
       <c r="C86" s="6" t="s">
@@ -6339,7 +6342,7 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6"/>
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="7" t="s">
         <v>338</v>
       </c>
       <c r="C87" s="6" t="s">
@@ -6360,16 +6363,16 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6"/>
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C88" s="7" t="s">
         <v>340</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="E88" s="8" t="n">
+      <c r="E88" s="7" t="n">
         <v>3</v>
       </c>
       <c r="F88" s="6" t="s">
@@ -6381,16 +6384,16 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6"/>
-      <c r="B89" s="8" t="s">
+      <c r="B89" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C89" s="7" t="s">
         <v>340</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="E89" s="8" t="n">
+      <c r="E89" s="7" t="n">
         <v>2</v>
       </c>
       <c r="F89" s="6" t="s">
@@ -6402,16 +6405,16 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6"/>
-      <c r="B90" s="8" t="s">
+      <c r="B90" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C90" s="7" t="s">
         <v>340</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="E90" s="8" t="n">
+      <c r="E90" s="7" t="n">
         <v>5</v>
       </c>
       <c r="F90" s="6" t="s">
@@ -6423,7 +6426,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6"/>
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="7" t="s">
         <v>343</v>
       </c>
       <c r="C91" s="6" t="s">
@@ -6444,16 +6447,16 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6"/>
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="C92" s="7" t="s">
         <v>345</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="E92" s="8" t="n">
+      <c r="E92" s="7" t="n">
         <v>4</v>
       </c>
       <c r="F92" s="6" t="s">
@@ -6465,16 +6468,16 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6"/>
-      <c r="B93" s="8" t="s">
+      <c r="B93" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="C93" s="7" t="s">
         <v>345</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="E93" s="8" t="n">
+      <c r="E93" s="7" t="n">
         <v>4</v>
       </c>
       <c r="F93" s="6" t="s">
@@ -6507,7 +6510,7 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6"/>
-      <c r="B95" s="8" t="s">
+      <c r="B95" s="7" t="s">
         <v>348</v>
       </c>
       <c r="C95" s="6" t="s">
@@ -6528,7 +6531,7 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6"/>
-      <c r="B96" s="8" t="s">
+      <c r="B96" s="7" t="s">
         <v>350</v>
       </c>
       <c r="C96" s="6" t="s">
@@ -6549,16 +6552,16 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6"/>
-      <c r="B97" s="8" t="s">
+      <c r="B97" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C97" s="7" t="s">
         <v>349</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="E97" s="8" t="n">
+      <c r="E97" s="7" t="n">
         <v>3</v>
       </c>
       <c r="F97" s="6" t="s">
@@ -6570,16 +6573,16 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6"/>
-      <c r="B98" s="8" t="s">
+      <c r="B98" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="C98" s="8" t="s">
+      <c r="C98" s="7" t="s">
         <v>349</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="E98" s="8" t="n">
+      <c r="E98" s="7" t="n">
         <v>3</v>
       </c>
       <c r="F98" s="6" t="s">
@@ -6591,16 +6594,16 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="6"/>
-      <c r="B99" s="8" t="s">
+      <c r="B99" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="C99" s="8" t="s">
+      <c r="C99" s="7" t="s">
         <v>349</v>
       </c>
       <c r="D99" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="E99" s="8" t="n">
+      <c r="E99" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F99" s="6" t="s">
@@ -6612,16 +6615,16 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="6"/>
-      <c r="B100" s="8" t="s">
+      <c r="B100" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="C100" s="8" t="s">
+      <c r="C100" s="7" t="s">
         <v>349</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="E100" s="8" t="n">
+      <c r="E100" s="7" t="n">
         <v>1</v>
       </c>
       <c r="F100" s="6" t="s">
@@ -6633,7 +6636,7 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6"/>
-      <c r="B101" s="8" t="s">
+      <c r="B101" s="7" t="s">
         <v>355</v>
       </c>
       <c r="C101" s="6" t="s">
@@ -6656,7 +6659,7 @@
       <c r="A102" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B102" s="7" t="s">
         <v>356</v>
       </c>
       <c r="C102" s="6" t="s">
@@ -6679,7 +6682,7 @@
       <c r="A103" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="B103" s="7" t="s">
         <v>359</v>
       </c>
       <c r="C103" s="6" t="s">
@@ -6708,7 +6711,7 @@
       <c r="A104" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B104" s="8" t="s">
+      <c r="B104" s="7" t="s">
         <v>362</v>
       </c>
       <c r="C104" s="6" t="s">
@@ -6732,7 +6735,7 @@
       <c r="A105" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B105" s="8" t="s">
+      <c r="B105" s="7" t="s">
         <v>364</v>
       </c>
       <c r="C105" s="6" t="s">
@@ -7092,16 +7095,16 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="6"/>
-      <c r="B109" s="8" t="s">
+      <c r="B109" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="C109" s="8" t="s">
+      <c r="C109" s="7" t="s">
         <v>391</v>
       </c>
       <c r="D109" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="E109" s="8" t="n">
+      <c r="E109" s="7" t="n">
         <v>2</v>
       </c>
       <c r="F109" s="6" t="s">
@@ -7114,16 +7117,16 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="6"/>
-      <c r="B110" s="8" t="s">
+      <c r="B110" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="C110" s="8" t="s">
+      <c r="C110" s="7" t="s">
         <v>391</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="E110" s="8" t="n">
+      <c r="E110" s="7" t="n">
         <v>2</v>
       </c>
       <c r="F110" s="6" t="s">
@@ -7136,7 +7139,7 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6"/>
-      <c r="B111" s="8" t="s">
+      <c r="B111" s="7" t="s">
         <v>393</v>
       </c>
       <c r="C111" s="6" t="s">
@@ -7158,7 +7161,7 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6"/>
-      <c r="B112" s="8" t="s">
+      <c r="B112" s="7" t="s">
         <v>394</v>
       </c>
       <c r="C112" s="6" t="s">
@@ -7180,7 +7183,7 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6"/>
-      <c r="B113" s="8" t="s">
+      <c r="B113" s="7" t="s">
         <v>395</v>
       </c>
       <c r="C113" s="6" t="s">
@@ -7202,7 +7205,7 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="6"/>
-      <c r="B114" s="8" t="s">
+      <c r="B114" s="7" t="s">
         <v>396</v>
       </c>
       <c r="C114" s="6" t="s">
@@ -7224,16 +7227,16 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6"/>
-      <c r="B115" s="8" t="s">
+      <c r="B115" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C115" s="8" t="s">
+      <c r="C115" s="7" t="s">
         <v>397</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="E115" s="8" t="n">
+      <c r="E115" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F115" s="6" t="s">
@@ -7246,7 +7249,7 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6"/>
-      <c r="B116" s="8" t="s">
+      <c r="B116" s="7" t="s">
         <v>398</v>
       </c>
       <c r="C116" s="6" t="s">
@@ -7268,7 +7271,7 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6"/>
-      <c r="B117" s="8" t="s">
+      <c r="B117" s="7" t="s">
         <v>400</v>
       </c>
       <c r="C117" s="6" t="s">
@@ -7290,7 +7293,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6"/>
-      <c r="B118" s="8" t="s">
+      <c r="B118" s="7" t="s">
         <v>401</v>
       </c>
       <c r="C118" s="6" t="s">
@@ -7312,16 +7315,16 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6"/>
-      <c r="B119" s="8" t="s">
+      <c r="B119" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C119" s="8" t="s">
+      <c r="C119" s="7" t="s">
         <v>403</v>
       </c>
       <c r="D119" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="E119" s="8" t="n">
+      <c r="E119" s="7" t="n">
         <v>3</v>
       </c>
       <c r="F119" s="6" t="s">
@@ -7334,7 +7337,7 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6"/>
-      <c r="B120" s="8" t="s">
+      <c r="B120" s="7" t="s">
         <v>404</v>
       </c>
       <c r="C120" s="6" t="s">
@@ -7356,7 +7359,7 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6"/>
-      <c r="B121" s="8" t="s">
+      <c r="B121" s="7" t="s">
         <v>405</v>
       </c>
       <c r="C121" s="6" t="s">
@@ -7378,7 +7381,7 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6"/>
-      <c r="B122" s="8" t="s">
+      <c r="B122" s="7" t="s">
         <v>406</v>
       </c>
       <c r="C122" s="6" t="s">
@@ -7400,7 +7403,7 @@
     </row>
     <row r="123" customFormat="false" ht="21.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6"/>
-      <c r="B123" s="8" t="s">
+      <c r="B123" s="7" t="s">
         <v>408</v>
       </c>
       <c r="C123" s="6" t="s">
@@ -7427,7 +7430,7 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6"/>
-      <c r="B124" s="8" t="s">
+      <c r="B124" s="7" t="s">
         <v>411</v>
       </c>
       <c r="C124" s="6" t="s">
@@ -7449,7 +7452,7 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6"/>
-      <c r="B125" s="8" t="s">
+      <c r="B125" s="7" t="s">
         <v>412</v>
       </c>
       <c r="C125" s="6" t="s">
@@ -7471,16 +7474,16 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6"/>
-      <c r="B126" s="8" t="s">
+      <c r="B126" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="C126" s="8" t="s">
+      <c r="C126" s="7" t="s">
         <v>413</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="E126" s="8" t="n">
+      <c r="E126" s="7" t="n">
         <v>2</v>
       </c>
       <c r="F126" s="6" t="s">
@@ -7493,16 +7496,16 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="6"/>
-      <c r="B127" s="8" t="s">
+      <c r="B127" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="C127" s="8" t="s">
+      <c r="C127" s="7" t="s">
         <v>413</v>
       </c>
       <c r="D127" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="E127" s="8" t="n">
+      <c r="E127" s="7" t="n">
         <v>1</v>
       </c>
       <c r="F127" s="6" t="s">
@@ -7515,7 +7518,7 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6"/>
-      <c r="B128" s="8" t="s">
+      <c r="B128" s="7" t="s">
         <v>416</v>
       </c>
       <c r="C128" s="6" t="s">
@@ -7537,16 +7540,16 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6"/>
-      <c r="B129" s="8" t="s">
+      <c r="B129" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="C129" s="8" t="s">
+      <c r="C129" s="7" t="s">
         <v>418</v>
       </c>
       <c r="D129" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="E129" s="8" t="n">
+      <c r="E129" s="7" t="n">
         <v>4</v>
       </c>
       <c r="F129" s="6" t="s">
@@ -7559,7 +7562,7 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6"/>
-      <c r="B130" s="8" t="s">
+      <c r="B130" s="7" t="s">
         <v>419</v>
       </c>
       <c r="C130" s="6" t="s">
@@ -7581,7 +7584,7 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="6"/>
-      <c r="B131" s="8" t="s">
+      <c r="B131" s="7" t="s">
         <v>420</v>
       </c>
       <c r="C131" s="6" t="s">
@@ -7603,7 +7606,7 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6"/>
-      <c r="B132" s="8" t="s">
+      <c r="B132" s="7" t="s">
         <v>421</v>
       </c>
       <c r="C132" s="6" t="s">
@@ -7625,7 +7628,7 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6"/>
-      <c r="B133" s="8" t="s">
+      <c r="B133" s="7" t="s">
         <v>423</v>
       </c>
       <c r="C133" s="6" t="s">
@@ -7647,7 +7650,7 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="6"/>
-      <c r="B134" s="8" t="s">
+      <c r="B134" s="7" t="s">
         <v>424</v>
       </c>
       <c r="C134" s="6" t="s">
@@ -7669,7 +7672,7 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="6"/>
-      <c r="B135" s="8" t="s">
+      <c r="B135" s="7" t="s">
         <v>425</v>
       </c>
       <c r="C135" s="6" t="s">
@@ -7713,7 +7716,7 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="6"/>
-      <c r="B137" s="8" t="s">
+      <c r="B137" s="7" t="s">
         <v>429</v>
       </c>
       <c r="C137" s="6" t="s">
@@ -7735,7 +7738,7 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="6"/>
-      <c r="B138" s="8" t="s">
+      <c r="B138" s="7" t="s">
         <v>431</v>
       </c>
       <c r="C138" s="6" t="s">
@@ -7757,7 +7760,7 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="6"/>
-      <c r="B139" s="8" t="s">
+      <c r="B139" s="7" t="s">
         <v>433</v>
       </c>
       <c r="C139" s="6" t="s">
@@ -7779,16 +7782,16 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="6"/>
-      <c r="B140" s="8" t="s">
+      <c r="B140" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="C140" s="8" t="s">
+      <c r="C140" s="7" t="s">
         <v>432</v>
       </c>
       <c r="D140" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="E140" s="8" t="n">
+      <c r="E140" s="7" t="n">
         <v>3</v>
       </c>
       <c r="F140" s="6" t="s">
@@ -7801,16 +7804,16 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="6"/>
-      <c r="B141" s="8" t="s">
+      <c r="B141" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="C141" s="8" t="s">
+      <c r="C141" s="7" t="s">
         <v>432</v>
       </c>
       <c r="D141" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="E141" s="8" t="n">
+      <c r="E141" s="7" t="n">
         <v>1</v>
       </c>
       <c r="F141" s="6" t="s">
@@ -7823,7 +7826,7 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="6"/>
-      <c r="B142" s="8" t="s">
+      <c r="B142" s="7" t="s">
         <v>436</v>
       </c>
       <c r="C142" s="6" t="s">
@@ -7847,7 +7850,7 @@
       <c r="A143" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B143" s="8" t="s">
+      <c r="B143" s="7" t="s">
         <v>438</v>
       </c>
       <c r="C143" s="6" t="s">
@@ -7873,7 +7876,7 @@
       </c>
     </row>
     <row r="144" customFormat="false" ht="42.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="11" t="n">
+      <c r="A144" s="10" t="n">
         <v>2</v>
       </c>
       <c r="B144" s="6" t="s">
@@ -7899,7 +7902,7 @@
       </c>
     </row>
     <row r="145" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="11" t="n">
+      <c r="A145" s="10" t="n">
         <v>3</v>
       </c>
       <c r="B145" s="6" t="s">
@@ -7928,7 +7931,7 @@
       </c>
     </row>
     <row r="146" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="11" t="n">
+      <c r="A146" s="10" t="n">
         <v>4</v>
       </c>
       <c r="B146" s="6" t="s">
@@ -7957,7 +7960,7 @@
       </c>
     </row>
     <row r="147" customFormat="false" ht="226.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="11" t="n">
+      <c r="A147" s="10" t="n">
         <v>5</v>
       </c>
       <c r="B147" s="6" t="s">
@@ -7987,7 +7990,7 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="6"/>
-      <c r="B148" s="8" t="s">
+      <c r="B148" s="7" t="s">
         <v>454</v>
       </c>
       <c r="C148" s="6" t="s">
@@ -8009,7 +8012,7 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="6"/>
-      <c r="B149" s="8" t="s">
+      <c r="B149" s="7" t="s">
         <v>455</v>
       </c>
       <c r="C149" s="6" t="s">
@@ -8029,35 +8032,115 @@
       </c>
       <c r="AM149" s="6"/>
     </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="108.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="6"/>
-      <c r="B150" s="8" t="s">
+      <c r="B150" s="7" t="s">
         <v>456</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>457</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>238</v>
+        <v>458</v>
       </c>
       <c r="E150" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="G150" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="AM150" s="6"/>
+      <c r="H150" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I150" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N150" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O150" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P150" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q150" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="R150" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S150" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T150" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U150" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="V150" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="W150" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="X150" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y150" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z150" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA150" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="AB150" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="AC150" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AE150" s="2" t="n">
+        <v>-3</v>
+      </c>
+      <c r="AF150" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG150" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH150" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI150" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ150" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="AK150" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="AL150" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="AM150" s="6" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="6"/>
-      <c r="B151" s="8" t="s">
-        <v>458</v>
+      <c r="B151" s="7" t="s">
+        <v>465</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="D151" s="6" t="s">
         <v>238</v>
@@ -8075,11 +8158,11 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="6"/>
-      <c r="B152" s="8" t="s">
-        <v>460</v>
+      <c r="B152" s="7" t="s">
+        <v>467</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="D152" s="6" t="s">
         <v>238</v>
@@ -8097,11 +8180,11 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="6"/>
-      <c r="B153" s="8" t="s">
-        <v>461</v>
+      <c r="B153" s="7" t="s">
+        <v>468</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="D153" s="6" t="s">
         <v>238</v>
@@ -8119,16 +8202,16 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="6"/>
-      <c r="B154" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="C154" s="8" t="s">
-        <v>463</v>
+      <c r="B154" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>470</v>
       </c>
       <c r="D154" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="E154" s="8" t="n">
+      <c r="E154" s="7" t="n">
         <v>3</v>
       </c>
       <c r="F154" s="6" t="s">
@@ -8138,21 +8221,21 @@
         <v>156</v>
       </c>
       <c r="AM154" s="6" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="6"/>
-      <c r="B155" s="8" t="s">
-        <v>465</v>
-      </c>
-      <c r="C155" s="8" t="s">
-        <v>463</v>
+      <c r="B155" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>470</v>
       </c>
       <c r="D155" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="E155" s="8" t="n">
+      <c r="E155" s="7" t="n">
         <v>4</v>
       </c>
       <c r="F155" s="6" t="s">
@@ -8162,21 +8245,21 @@
         <v>156</v>
       </c>
       <c r="AM155" s="6" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="6"/>
-      <c r="B156" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="C156" s="8" t="s">
-        <v>463</v>
+      <c r="B156" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>470</v>
       </c>
       <c r="D156" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="E156" s="8" t="n">
+      <c r="E156" s="7" t="n">
         <v>5</v>
       </c>
       <c r="F156" s="6" t="s">
@@ -8186,7 +8269,7 @@
         <v>156</v>
       </c>
       <c r="AM156" s="6" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="AN156" s="1" t="n">
         <v>1</v>
@@ -8195,10 +8278,10 @@
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="6"/>
       <c r="B157" s="6" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="D157" s="6" t="s">
         <v>238</v>
@@ -8217,10 +8300,10 @@
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="6"/>
       <c r="B158" s="6" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="D158" s="6" t="s">
         <v>238</v>
@@ -8238,11 +8321,11 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="6"/>
-      <c r="B159" s="8" t="s">
-        <v>472</v>
+      <c r="B159" s="7" t="s">
+        <v>479</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="D159" s="6" t="s">
         <v>238</v>
@@ -8260,11 +8343,11 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="6"/>
-      <c r="B160" s="8" t="s">
-        <v>474</v>
+      <c r="B160" s="7" t="s">
+        <v>481</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="D160" s="6" t="s">
         <v>238</v>
@@ -8285,13 +8368,13 @@
         <v>1</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="E161" s="1" t="n">
         <v>3</v>
@@ -8351,7 +8434,7 @@
         <v>1</v>
       </c>
       <c r="AA161" s="1" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="AE161" s="2" t="n">
         <v>4</v>
@@ -8369,16 +8452,16 @@
         <v>0</v>
       </c>
       <c r="AJ161" s="1" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="AK161" s="1" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="AL161" s="1" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="AM161" s="1" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8386,13 +8469,13 @@
         <v>2</v>
       </c>
       <c r="B162" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C162" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="C162" s="1" t="s">
-        <v>476</v>
-      </c>
       <c r="D162" s="1" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="E162" s="1" t="n">
         <v>5</v>
@@ -8452,7 +8535,7 @@
         <v>5</v>
       </c>
       <c r="AA162" s="1" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="AB162" s="1" t="s">
         <v>165</v>
@@ -8473,16 +8556,16 @@
         <v>1</v>
       </c>
       <c r="AJ162" s="1" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="AK162" s="1" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="AL162" s="1" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="AM162" s="1" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8490,13 +8573,13 @@
         <v>1</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="E163" s="1" t="n">
         <v>5</v>
@@ -8562,10 +8645,10 @@
         <v>5</v>
       </c>
       <c r="AA163" s="1" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="AD163" s="1" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="AE163" s="2" t="n">
         <v>2</v>
@@ -8583,16 +8666,16 @@
         <v>0</v>
       </c>
       <c r="AJ163" s="1" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="AK163" s="1" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="AL163" s="1" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="AM163" s="1" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="AN163" s="1" t="n">
         <v>1</v>
@@ -8603,13 +8686,13 @@
         <v>2</v>
       </c>
       <c r="B164" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C164" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="C164" s="1" t="s">
-        <v>490</v>
-      </c>
       <c r="D164" s="1" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="E164" s="1" t="n">
         <v>5</v>
@@ -8675,10 +8758,10 @@
         <v>6</v>
       </c>
       <c r="AA164" s="1" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="AD164" s="1" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="AE164" s="2" t="n">
         <v>2</v>
@@ -8696,16 +8779,16 @@
         <v>0</v>
       </c>
       <c r="AJ164" s="1" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="AK164" s="1" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="AL164" s="5" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="AM164" s="1" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8713,13 +8796,13 @@
         <v>3</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="E165" s="1" t="n">
         <v>6</v>
@@ -8785,13 +8868,13 @@
         <v>6</v>
       </c>
       <c r="AA165" s="1" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="AB165" s="1" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="AD165" s="1" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="AE165" s="2" t="n">
         <v>3</v>
@@ -8809,16 +8892,16 @@
         <v>0</v>
       </c>
       <c r="AJ165" s="1" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="AK165" s="1" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="AL165" s="5" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="AM165" s="1" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="AN165" s="1" t="n">
         <v>1</v>
@@ -8829,13 +8912,13 @@
         <v>4</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="E166" s="1" t="n">
         <v>4</v>
@@ -8895,7 +8978,7 @@
         <v>4</v>
       </c>
       <c r="AD166" s="1" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="AE166" s="2" t="n">
         <v>3</v>
@@ -8913,16 +8996,16 @@
         <v>0</v>
       </c>
       <c r="AJ166" s="1" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="AK166" s="1" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="AL166" s="5" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="AM166" s="1" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
     </row>
   </sheetData>

--- a/GameMasterGuide/Data/Beasts/beasts.xlsx
+++ b/GameMasterGuide/Data/Beasts/beasts.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="534">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -956,22 +956,64 @@
     <t xml:space="preserve">Creations</t>
   </si>
   <si>
+    <t xml:space="preserve">The Hidebehind was accidentally created when illegal trader Phineas Fletcher attempted to import a trafficked Demiguise into America, with the goal of manufacturing Invisibility cloaks. The Demiguise escaped while on board the ship and bred with a stowaway ghoul, and the offspring escaped into the forests of Massachusetts.
+As a result of their \imp{Demiguise} ancestry, they are able to turn invisible, though they prefer to use their ability to contort and warp their shape like rubber, such that they can hide behind almost any object (hence the name). Those few who have glimpsed a \name{} descibe them as a bipedal bear-like creature with fine silver hair. 
+\name{}s are highly intelligent, but harbour a deep hatred and resentment for humankind, probably due to a genetic memory of the cruel circumstances that led to their creation. They will use their abilities to sneak up on unwary humanoids, knock them unconscious and then feast upon them. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\understands{Human languages (poorly)}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\melee{Bludgeon}{5}{-2}{Bashing damage}{1 + Successes}
+\extendedmelee{Rubbery flail}{5}{1}{Bashing damage}{1 + Successes}{5}
+\melee{Bite}{7}{0}{Stabbing damage}{2 + Successes}
+\ability{Phase}{As a \imp{Minor Action}, a \name{} may expend a \imp{Fortitude} point to turn invisible at the end of the round, lasting for 3 rounds (10 seconds). This invisibility is not broken by taking actions.}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\skill{Covert}{5}
+\skill{Shapeshift}{1}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Malleable Form}{A \name{} may use their \imp{Shapeshifting} ability to warp their form as if it were made of loose rubber. They cannot alter their appearance beyond this malleability.}
+\ability{Hidden Reprieve}{Whenever a \name{} manages to successfully remain hidden for a full round, and does not reveal their location by attacking, they recover a \imp{Fortitude} point.}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hidebehind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blast-Ended Skrewt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The first clutch of \name{}s was hatched by \imp{Rubeus Hagrid} in 1994 from an illegal interspecies mixing of \imp{Manticores} and \imp{Firecrabs}. 
+The result was a set of horrifying infants which resembled 3ft long deformed, shell-less lobsters, mixed with a scorpion. As they mature, they grow up to 10ft in length, and develop a highly resistant (and equally disgusting) carapace which reflects almost all magical effects. 
+The males of the species possess wicked scorpion-like tails filled with a deadly venom, whilst the females have suckers they use to drain the blood of their victims. All adult members of the species were capable of generating immense blasts of fire from their rear end – either used as a propulsion system, or as an offensive weapon. 
+Due to Hagrid’s well documented and extreme negligence, a number of \name{}s were able to escape into the \imp{Forbidden Forest}, and have begun breeding. Recent attempts to quell the infestation were unsuccessful. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any spell not \imp{called} to their underside</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\areaConsequence{Fire Blast}{Cone 2m in length}{5}{1}{Fire Damage}{2 + Successes}{The \name{} is launced 5m in the opposite direction to the attack. Can expend a \imp{Fortitude} point to extend this to up to 15m, and immediately make another attack.}
+\melee{Stinger (males only)}{6}{-1}{Poison Damage}{3 + Successes}
+\meleeConsequence{Sucker (females only)}{6}{-1}{Necrotic Damage}{1 + Successes}{The \name{} heals for half the amount of damage dealt.}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\skill{Strength}{2}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Resistant Armour}{The slimy, disgusting shell of the \name{} reflects almost all magic. Attacks must be specifically targeted at their fleshy underbellies to be effective.}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">screwt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demiguise</t>
+  </si>
+  <si>
     <t xml:space="preserve">\blindtext{2}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hidebehind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blast-Ended Skrewt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">screwt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demiguise</t>
   </si>
   <si>
     <t xml:space="preserve">demiguise</t>
@@ -2102,11 +2144,11 @@
   <dimension ref="A1:AN166"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E147" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AE27" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A147" activeCellId="0" sqref="A147"/>
-      <selection pane="bottomRight" activeCell="F151" activeCellId="0" sqref="F151"/>
+      <selection pane="topRight" activeCell="AE1" activeCellId="0" sqref="AE1"/>
+      <selection pane="bottomLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
+      <selection pane="bottomRight" activeCell="AL28" activeCellId="0" sqref="AL28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2122,7 +2164,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="2" width="7.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="2" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="2" width="11.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="2" width="10.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="2" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="2" width="9.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="44.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="22.38"/>
@@ -5010,7 +5052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="152" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
         <v>1</v>
       </c>
@@ -5024,7 +5066,7 @@
         <v>238</v>
       </c>
       <c r="E28" s="7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>56</v>
@@ -5032,25 +5074,103 @@
       <c r="G28" s="6" t="s">
         <v>239</v>
       </c>
+      <c r="H28" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O28" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P28" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S28" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="U28" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="W28" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="X28" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y28" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z28" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD28" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AE28" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AK28" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AL28" s="1" t="s">
+        <v>243</v>
+      </c>
       <c r="AM28" s="6" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
         <v>2</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>237</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E29" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>128</v>
@@ -5058,8 +5178,89 @@
       <c r="G29" s="6" t="s">
         <v>47</v>
       </c>
+      <c r="H29" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O29" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P29" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q29" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="W29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X29" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y29" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AE29" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF29" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AK29" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AL29" s="1" t="s">
+        <v>250</v>
+      </c>
       <c r="AM29" s="6" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="AN29" s="1" t="n">
         <v>1</v>
@@ -5068,13 +5269,13 @@
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6"/>
       <c r="B30" s="7" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>3</v>
@@ -5086,19 +5287,19 @@
         <v>129</v>
       </c>
       <c r="AM30" s="6" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6"/>
       <c r="B31" s="6" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>5</v>
@@ -5113,13 +5314,13 @@
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6"/>
       <c r="B32" s="6" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>4</v>
@@ -5134,13 +5335,13 @@
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6"/>
       <c r="B33" s="6" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E33" s="6" t="n">
         <v>4</v>
@@ -5155,13 +5356,13 @@
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6"/>
       <c r="B34" s="6" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>3</v>
@@ -5176,13 +5377,13 @@
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6"/>
       <c r="B35" s="6" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E35" s="6" t="n">
         <v>6</v>
@@ -5197,13 +5398,13 @@
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6"/>
       <c r="B36" s="6" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>4</v>
@@ -5218,13 +5419,13 @@
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6"/>
       <c r="B37" s="6" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>4</v>
@@ -5239,13 +5440,13 @@
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6"/>
       <c r="B38" s="6" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>5</v>
@@ -5260,13 +5461,13 @@
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6"/>
       <c r="B39" s="6" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E39" s="6" t="n">
         <v>3</v>
@@ -5281,13 +5482,13 @@
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6"/>
       <c r="B40" s="7" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E40" s="7" t="n">
         <v>6</v>
@@ -5296,19 +5497,19 @@
         <v>56</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6"/>
       <c r="B41" s="7" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E41" s="7" t="n">
         <v>6</v>
@@ -5317,19 +5518,19 @@
         <v>128</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6"/>
       <c r="B42" s="7" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E42" s="7" t="n">
         <v>6</v>
@@ -5338,19 +5539,19 @@
         <v>128</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6"/>
       <c r="B43" s="7" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E43" s="7" t="n">
         <v>6</v>
@@ -5359,19 +5560,19 @@
         <v>128</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6"/>
       <c r="B44" s="7" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E44" s="7" t="n">
         <v>6</v>
@@ -5380,40 +5581,40 @@
         <v>128</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6"/>
       <c r="B45" s="7" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E45" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6"/>
       <c r="B46" s="7" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E46" s="7" t="n">
         <v>6</v>
@@ -5422,19 +5623,19 @@
         <v>56</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6"/>
       <c r="B47" s="7" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E47" s="7" t="n">
         <v>6</v>
@@ -5443,19 +5644,19 @@
         <v>128</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6"/>
       <c r="B48" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C48" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="C48" s="7" t="s">
-        <v>256</v>
-      </c>
       <c r="D48" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E48" s="7" t="n">
         <v>6</v>
@@ -5464,19 +5665,19 @@
         <v>56</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6"/>
       <c r="B49" s="7" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E49" s="7" t="n">
         <v>6</v>
@@ -5485,19 +5686,19 @@
         <v>56</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6"/>
       <c r="B50" s="7" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E50" s="6" t="n">
         <v>5</v>
@@ -5506,19 +5707,19 @@
         <v>72</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6"/>
       <c r="B51" s="7" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E51" s="6" t="n">
         <v>5</v>
@@ -5527,19 +5728,19 @@
         <v>72</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6"/>
       <c r="B52" s="6" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E52" s="6" t="n">
         <v>5</v>
@@ -5548,7 +5749,7 @@
         <v>72</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="42.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5556,13 +5757,13 @@
         <v>1</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="E53" s="6" t="n">
         <v>1</v>
@@ -5574,7 +5775,7 @@
         <v>173</v>
       </c>
       <c r="AM53" s="6" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="93.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5582,13 +5783,13 @@
         <v>2</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="E54" s="6" t="n">
         <v>2</v>
@@ -5600,7 +5801,7 @@
         <v>173</v>
       </c>
       <c r="AM54" s="6" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="72.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5608,13 +5809,13 @@
         <v>3</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="E55" s="6" t="n">
         <v>2</v>
@@ -5626,7 +5827,7 @@
         <v>173</v>
       </c>
       <c r="AM55" s="6" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5634,13 +5835,13 @@
         <v>4</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="E56" s="6" t="n">
         <v>3</v>
@@ -5652,7 +5853,7 @@
         <v>173</v>
       </c>
       <c r="AM56" s="6" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="AN56" s="1" t="n">
         <v>1</v>
@@ -5663,13 +5864,13 @@
         <v>5</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="E57" s="6" t="n">
         <v>3</v>
@@ -5681,7 +5882,7 @@
         <v>173</v>
       </c>
       <c r="AM57" s="6" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="AN57" s="1" t="n">
         <v>1</v>
@@ -5692,13 +5893,13 @@
         <v>6</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="E58" s="6" t="n">
         <v>5</v>
@@ -5710,7 +5911,7 @@
         <v>239</v>
       </c>
       <c r="AM58" s="6" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="AN58" s="1" t="n">
         <v>1</v>
@@ -5719,13 +5920,13 @@
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6"/>
       <c r="B59" s="7" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E59" s="6" t="n">
         <v>2</v>
@@ -5741,13 +5942,13 @@
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6"/>
       <c r="B60" s="7" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E60" s="6" t="n">
         <v>2</v>
@@ -5763,13 +5964,13 @@
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6"/>
       <c r="B61" s="7" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E61" s="7" t="n">
         <v>2</v>
@@ -5787,13 +5988,13 @@
         <v>1</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E62" s="6" t="n">
         <v>5</v>
@@ -5802,7 +6003,7 @@
         <v>128</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="AM62" s="6"/>
     </row>
@@ -5811,13 +6012,13 @@
         <v>2</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E63" s="7" t="n">
         <v>6</v>
@@ -5833,13 +6034,13 @@
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6"/>
       <c r="B64" s="7" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E64" s="7" t="n">
         <v>1</v>
@@ -5855,13 +6056,13 @@
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6"/>
       <c r="B65" s="7" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E65" s="7" t="n">
         <v>5</v>
@@ -5877,13 +6078,13 @@
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6"/>
       <c r="B66" s="7" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E66" s="6" t="n">
         <v>1</v>
@@ -5899,13 +6100,13 @@
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6"/>
       <c r="B67" s="7" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E67" s="6" t="n">
         <v>6</v>
@@ -5921,13 +6122,13 @@
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6"/>
       <c r="B68" s="7" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E68" s="6" t="n">
         <v>1</v>
@@ -5936,20 +6137,20 @@
         <v>128</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="AM68" s="6"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6"/>
       <c r="B69" s="7" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E69" s="7" t="n">
         <v>1</v>
@@ -5958,20 +6159,20 @@
         <v>128</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="AM69" s="6"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6"/>
       <c r="B70" s="7" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E70" s="6" t="n">
         <v>3</v>
@@ -5980,7 +6181,7 @@
         <v>128</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="AM70" s="6"/>
     </row>
@@ -5989,13 +6190,13 @@
         <v>1</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="E71" s="6" t="n">
         <v>4</v>
@@ -6004,10 +6205,10 @@
         <v>56</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="AM71" s="6" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6015,13 +6216,13 @@
         <v>2</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="E72" s="6" t="n">
         <v>4</v>
@@ -6030,10 +6231,10 @@
         <v>56</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="AM72" s="5" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="21.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6041,13 +6242,13 @@
         <v>3</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="E73" s="6" t="n">
         <v>5</v>
@@ -6056,10 +6257,10 @@
         <v>56</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="AM73" s="6" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6067,13 +6268,13 @@
         <v>4</v>
       </c>
       <c r="B74" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="C74" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="C74" s="6" t="s">
-        <v>310</v>
-      </c>
       <c r="D74" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E74" s="6" t="n">
         <v>6</v>
@@ -6082,22 +6283,22 @@
         <v>56</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="AM74" s="6" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6"/>
       <c r="B75" s="7" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E75" s="6" t="n">
         <v>5</v>
@@ -6106,19 +6307,19 @@
         <v>72</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6"/>
       <c r="B76" s="7" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E76" s="6" t="n">
         <v>5</v>
@@ -6127,19 +6328,19 @@
         <v>72</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6"/>
       <c r="B77" s="7" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E77" s="6" t="n">
         <v>5</v>
@@ -6148,19 +6349,19 @@
         <v>72</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6"/>
       <c r="B78" s="7" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E78" s="7" t="n">
         <v>2</v>
@@ -6175,13 +6376,13 @@
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6"/>
       <c r="B79" s="7" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E79" s="6" t="n">
         <v>2</v>
@@ -6196,13 +6397,13 @@
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6"/>
       <c r="B80" s="7" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E80" s="6" t="n">
         <v>5</v>
@@ -6211,19 +6412,19 @@
         <v>56</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6"/>
       <c r="B81" s="7" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E81" s="6" t="n">
         <v>5</v>
@@ -6232,19 +6433,19 @@
         <v>56</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6"/>
       <c r="B82" s="7" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E82" s="6" t="n">
         <v>6</v>
@@ -6253,19 +6454,19 @@
         <v>56</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6"/>
       <c r="B83" s="7" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E83" s="6" t="n">
         <v>5</v>
@@ -6274,19 +6475,19 @@
         <v>56</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6"/>
       <c r="B84" s="7" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E84" s="6" t="n">
         <v>5</v>
@@ -6301,13 +6502,13 @@
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6"/>
       <c r="B85" s="6" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E85" s="6" t="n">
         <v>5</v>
@@ -6322,13 +6523,13 @@
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6"/>
       <c r="B86" s="7" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E86" s="6" t="n">
         <v>3</v>
@@ -6343,13 +6544,13 @@
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6"/>
       <c r="B87" s="7" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E87" s="6" t="n">
         <v>5</v>
@@ -6364,13 +6565,13 @@
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6"/>
       <c r="B88" s="7" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E88" s="7" t="n">
         <v>3</v>
@@ -6385,13 +6586,13 @@
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6"/>
       <c r="B89" s="7" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E89" s="7" t="n">
         <v>2</v>
@@ -6406,13 +6607,13 @@
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6"/>
       <c r="B90" s="7" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E90" s="7" t="n">
         <v>5</v>
@@ -6427,13 +6628,13 @@
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6"/>
       <c r="B91" s="7" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E91" s="6" t="n">
         <v>2</v>
@@ -6448,13 +6649,13 @@
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6"/>
       <c r="B92" s="7" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E92" s="7" t="n">
         <v>4</v>
@@ -6469,13 +6670,13 @@
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6"/>
       <c r="B93" s="7" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E93" s="7" t="n">
         <v>4</v>
@@ -6490,13 +6691,13 @@
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6"/>
       <c r="B94" s="6" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E94" s="6" t="n">
         <v>5</v>
@@ -6511,13 +6712,13 @@
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6"/>
       <c r="B95" s="7" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E95" s="6" t="n">
         <v>1</v>
@@ -6532,13 +6733,13 @@
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6"/>
       <c r="B96" s="7" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E96" s="6" t="n">
         <v>2</v>
@@ -6553,13 +6754,13 @@
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6"/>
       <c r="B97" s="7" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E97" s="7" t="n">
         <v>3</v>
@@ -6574,13 +6775,13 @@
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6"/>
       <c r="B98" s="7" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E98" s="7" t="n">
         <v>3</v>
@@ -6595,13 +6796,13 @@
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="6"/>
       <c r="B99" s="7" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E99" s="7" t="n">
         <v>0</v>
@@ -6616,13 +6817,13 @@
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="6"/>
       <c r="B100" s="7" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E100" s="7" t="n">
         <v>1</v>
@@ -6637,13 +6838,13 @@
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6"/>
       <c r="B101" s="7" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E101" s="6" t="n">
         <v>2</v>
@@ -6660,13 +6861,13 @@
         <v>1</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="E102" s="6" t="n">
         <v>6</v>
@@ -6675,7 +6876,7 @@
         <v>56</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="83.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6683,13 +6884,13 @@
         <v>2</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="E103" s="6" t="n">
         <v>4</v>
@@ -6701,7 +6902,7 @@
         <v>104</v>
       </c>
       <c r="AM103" s="6" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="AN103" s="1" t="n">
         <v>1</v>
@@ -6712,13 +6913,13 @@
         <v>3</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="E104" s="6" t="n">
         <v>6</v>
@@ -6727,7 +6928,7 @@
         <v>56</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="AM104" s="6"/>
     </row>
@@ -6736,13 +6937,13 @@
         <v>4</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="E105" s="6" t="n">
         <v>7</v>
@@ -6754,7 +6955,7 @@
         <v>215</v>
       </c>
       <c r="AM105" s="6" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="AN105" s="1" t="n">
         <v>1</v>
@@ -6765,13 +6966,13 @@
         <v>1</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="E106" s="1" t="n">
         <v>3</v>
@@ -6780,7 +6981,7 @@
         <v>46</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="H106" s="1" t="n">
         <v>1</v>
@@ -6840,10 +7041,10 @@
         <v>174</v>
       </c>
       <c r="AC106" s="1" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="AD106" s="1" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="AE106" s="2" t="n">
         <v>-3</v>
@@ -6861,16 +7062,16 @@
         <v>0</v>
       </c>
       <c r="AJ106" s="1" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="AK106" s="1" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="AL106" s="1" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="AM106" s="1" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6878,13 +7079,13 @@
         <v>2</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="E107" s="1" t="n">
         <v>4</v>
@@ -6893,7 +7094,7 @@
         <v>72</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="H107" s="1" t="n">
         <v>6</v>
@@ -6944,10 +7145,10 @@
         <v>73</v>
       </c>
       <c r="AB107" s="1" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="AD107" s="1" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="AE107" s="2" t="n">
         <v>-1</v>
@@ -6965,16 +7166,16 @@
         <v>0</v>
       </c>
       <c r="AJ107" s="1" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="AK107" s="1" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="AL107" s="1" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="AM107" s="1" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="AN107" s="1" t="n">
         <v>1</v>
@@ -6985,13 +7186,13 @@
         <v>3</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="E108" s="1" t="n">
         <v>5</v>
@@ -7000,7 +7201,7 @@
         <v>128</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="H108" s="1" t="n">
         <v>3</v>
@@ -7057,10 +7258,10 @@
         <v>4</v>
       </c>
       <c r="AA108" s="1" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="AD108" s="1" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="AE108" s="2" t="n">
         <v>2</v>
@@ -7078,16 +7279,16 @@
         <v>0</v>
       </c>
       <c r="AJ108" s="1" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="AK108" s="1" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="AL108" s="1" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="AM108" s="1" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="AN108" s="1" t="n">
         <v>1</v>
@@ -7096,13 +7297,13 @@
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="6"/>
       <c r="B109" s="7" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E109" s="7" t="n">
         <v>2</v>
@@ -7118,13 +7319,13 @@
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="6"/>
       <c r="B110" s="7" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E110" s="7" t="n">
         <v>2</v>
@@ -7140,13 +7341,13 @@
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6"/>
       <c r="B111" s="7" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E111" s="6" t="n">
         <v>1</v>
@@ -7162,13 +7363,13 @@
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6"/>
       <c r="B112" s="7" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E112" s="6" t="n">
         <v>2</v>
@@ -7184,13 +7385,13 @@
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6"/>
       <c r="B113" s="7" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E113" s="6" t="n">
         <v>1</v>
@@ -7206,13 +7407,13 @@
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="6"/>
       <c r="B114" s="7" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E114" s="6" t="n">
         <v>2</v>
@@ -7228,13 +7429,13 @@
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6"/>
       <c r="B115" s="7" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E115" s="7" t="n">
         <v>6</v>
@@ -7250,13 +7451,13 @@
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6"/>
       <c r="B116" s="7" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E116" s="6" t="n">
         <v>1</v>
@@ -7272,13 +7473,13 @@
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6"/>
       <c r="B117" s="7" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E117" s="6" t="n">
         <v>2</v>
@@ -7294,13 +7495,13 @@
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6"/>
       <c r="B118" s="7" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E118" s="6" t="n">
         <v>7</v>
@@ -7316,13 +7517,13 @@
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6"/>
       <c r="B119" s="7" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E119" s="7" t="n">
         <v>3</v>
@@ -7331,20 +7532,20 @@
         <v>128</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="AM119" s="6"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6"/>
       <c r="B120" s="7" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E120" s="6" t="n">
         <v>4</v>
@@ -7353,20 +7554,20 @@
         <v>56</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="AM120" s="6"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6"/>
       <c r="B121" s="7" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E121" s="6" t="n">
         <v>4</v>
@@ -7375,20 +7576,20 @@
         <v>128</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="AM121" s="6"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6"/>
       <c r="B122" s="7" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E122" s="6" t="n">
         <v>5</v>
@@ -7404,13 +7605,13 @@
     <row r="123" customFormat="false" ht="21.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6"/>
       <c r="B123" s="7" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="E123" s="6" t="n">
         <v>7</v>
@@ -7422,7 +7623,7 @@
         <v>47</v>
       </c>
       <c r="AM123" s="6" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="AN123" s="1" t="n">
         <v>1</v>
@@ -7431,13 +7632,13 @@
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6"/>
       <c r="B124" s="7" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E124" s="6" t="n">
         <v>4</v>
@@ -7453,13 +7654,13 @@
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6"/>
       <c r="B125" s="7" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E125" s="6" t="n">
         <v>2</v>
@@ -7475,13 +7676,13 @@
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6"/>
       <c r="B126" s="7" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E126" s="7" t="n">
         <v>2</v>
@@ -7497,13 +7698,13 @@
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="6"/>
       <c r="B127" s="7" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E127" s="7" t="n">
         <v>1</v>
@@ -7519,13 +7720,13 @@
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6"/>
       <c r="B128" s="7" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E128" s="6" t="n">
         <v>1</v>
@@ -7541,13 +7742,13 @@
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6"/>
       <c r="B129" s="7" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E129" s="7" t="n">
         <v>4</v>
@@ -7563,13 +7764,13 @@
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6"/>
       <c r="B130" s="7" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E130" s="6" t="n">
         <v>3</v>
@@ -7585,13 +7786,13 @@
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="6"/>
       <c r="B131" s="7" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E131" s="6" t="n">
         <v>4</v>
@@ -7607,13 +7808,13 @@
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6"/>
       <c r="B132" s="7" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E132" s="6" t="n">
         <v>1</v>
@@ -7629,13 +7830,13 @@
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6"/>
       <c r="B133" s="7" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E133" s="6" t="n">
         <v>0</v>
@@ -7651,13 +7852,13 @@
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="6"/>
       <c r="B134" s="7" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E134" s="6" t="n">
         <v>6</v>
@@ -7673,13 +7874,13 @@
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="6"/>
       <c r="B135" s="7" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E135" s="6" t="n">
         <v>4</v>
@@ -7688,20 +7889,20 @@
         <v>72</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="AM135" s="6"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6"/>
       <c r="B136" s="6" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E136" s="6" t="n">
         <v>4</v>
@@ -7710,20 +7911,20 @@
         <v>72</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="AM136" s="6"/>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="6"/>
       <c r="B137" s="7" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E137" s="6" t="n">
         <v>3</v>
@@ -7739,13 +7940,13 @@
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="6"/>
       <c r="B138" s="7" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E138" s="6" t="n">
         <v>3</v>
@@ -7754,20 +7955,20 @@
         <v>128</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AM138" s="6"/>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="6"/>
       <c r="B139" s="7" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E139" s="6" t="n">
         <v>3</v>
@@ -7776,20 +7977,20 @@
         <v>128</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AM139" s="6"/>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="6"/>
       <c r="B140" s="7" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E140" s="7" t="n">
         <v>3</v>
@@ -7798,20 +7999,20 @@
         <v>128</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AM140" s="6"/>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="6"/>
       <c r="B141" s="7" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E141" s="7" t="n">
         <v>1</v>
@@ -7820,20 +8021,20 @@
         <v>128</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AM141" s="6"/>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="6"/>
       <c r="B142" s="7" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E142" s="6" t="n">
         <v>5</v>
@@ -7851,13 +8052,13 @@
         <v>1</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="E143" s="6" t="n">
         <v>5</v>
@@ -7869,7 +8070,7 @@
         <v>215</v>
       </c>
       <c r="AM143" s="6" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="AN143" s="1" t="n">
         <v>1</v>
@@ -7880,13 +8081,13 @@
         <v>2</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="E144" s="6" t="n">
         <v>6</v>
@@ -7898,7 +8099,7 @@
         <v>215</v>
       </c>
       <c r="AM144" s="6" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7906,13 +8107,13 @@
         <v>3</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="E145" s="6" t="n">
         <v>6</v>
@@ -7924,7 +8125,7 @@
         <v>215</v>
       </c>
       <c r="AM145" s="6" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="AN145" s="1" t="n">
         <v>1</v>
@@ -7935,13 +8136,13 @@
         <v>4</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="E146" s="6" t="n">
         <v>6</v>
@@ -7953,7 +8154,7 @@
         <v>215</v>
       </c>
       <c r="AM146" s="6" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="AN146" s="1" t="n">
         <v>1</v>
@@ -7964,13 +8165,13 @@
         <v>5</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="E147" s="6" t="n">
         <v>7</v>
@@ -7982,7 +8183,7 @@
         <v>215</v>
       </c>
       <c r="AM147" s="6" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="AN147" s="1" t="n">
         <v>1</v>
@@ -7991,13 +8192,13 @@
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="6"/>
       <c r="B148" s="7" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E148" s="6" t="n">
         <v>6</v>
@@ -8013,13 +8214,13 @@
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="6"/>
       <c r="B149" s="7" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E149" s="6" t="n">
         <v>6</v>
@@ -8028,20 +8229,20 @@
         <v>128</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AM149" s="6"/>
     </row>
     <row r="150" customFormat="false" ht="108.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="6"/>
       <c r="B150" s="7" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="E150" s="6" t="n">
         <v>4</v>
@@ -8050,7 +8251,7 @@
         <v>56</v>
       </c>
       <c r="G150" s="6" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="H150" s="1" t="n">
         <v>6</v>
@@ -8098,10 +8299,10 @@
         <v>6</v>
       </c>
       <c r="AA150" s="1" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="AB150" s="1" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="AC150" s="1" t="s">
         <v>174</v>
@@ -8122,28 +8323,28 @@
         <v>0</v>
       </c>
       <c r="AJ150" s="1" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="AK150" s="1" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="AL150" s="1" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="AM150" s="6" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="6"/>
       <c r="B151" s="7" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E151" s="6" t="n">
         <v>5</v>
@@ -8159,13 +8360,13 @@
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="6"/>
       <c r="B152" s="7" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E152" s="6" t="n">
         <v>4</v>
@@ -8181,13 +8382,13 @@
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="6"/>
       <c r="B153" s="7" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E153" s="6" t="n">
         <v>6</v>
@@ -8203,13 +8404,13 @@
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="6"/>
       <c r="B154" s="7" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E154" s="7" t="n">
         <v>3</v>
@@ -8221,19 +8422,19 @@
         <v>156</v>
       </c>
       <c r="AM154" s="6" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="6"/>
       <c r="B155" s="7" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E155" s="7" t="n">
         <v>4</v>
@@ -8245,19 +8446,19 @@
         <v>156</v>
       </c>
       <c r="AM155" s="6" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="6"/>
       <c r="B156" s="7" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E156" s="7" t="n">
         <v>5</v>
@@ -8269,7 +8470,7 @@
         <v>156</v>
       </c>
       <c r="AM156" s="6" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="AN156" s="1" t="n">
         <v>1</v>
@@ -8278,13 +8479,13 @@
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="6"/>
       <c r="B157" s="6" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E157" s="6" t="n">
         <v>4</v>
@@ -8293,20 +8494,20 @@
         <v>56</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="AM157" s="6"/>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="6"/>
       <c r="B158" s="6" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E158" s="6" t="n">
         <v>6</v>
@@ -8322,13 +8523,13 @@
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="6"/>
       <c r="B159" s="7" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E159" s="6" t="n">
         <v>5</v>
@@ -8337,20 +8538,20 @@
         <v>128</v>
       </c>
       <c r="G159" s="6" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="AM159" s="6"/>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="6"/>
       <c r="B160" s="7" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="E160" s="6" t="n">
         <v>5</v>
@@ -8359,7 +8560,7 @@
         <v>128</v>
       </c>
       <c r="G160" s="6" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="AM160" s="6"/>
     </row>
@@ -8368,13 +8569,13 @@
         <v>1</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="E161" s="1" t="n">
         <v>3</v>
@@ -8383,7 +8584,7 @@
         <v>128</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="H161" s="1" t="n">
         <v>1</v>
@@ -8434,7 +8635,7 @@
         <v>1</v>
       </c>
       <c r="AA161" s="1" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="AE161" s="2" t="n">
         <v>4</v>
@@ -8452,16 +8653,16 @@
         <v>0</v>
       </c>
       <c r="AJ161" s="1" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="AK161" s="1" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="AL161" s="1" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="AM161" s="1" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8469,13 +8670,13 @@
         <v>2</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="E162" s="1" t="n">
         <v>5</v>
@@ -8484,7 +8685,7 @@
         <v>128</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="H162" s="1" t="n">
         <v>7</v>
@@ -8535,7 +8736,7 @@
         <v>5</v>
       </c>
       <c r="AA162" s="1" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="AB162" s="1" t="s">
         <v>165</v>
@@ -8556,16 +8757,16 @@
         <v>1</v>
       </c>
       <c r="AJ162" s="1" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="AK162" s="1" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="AL162" s="1" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="AM162" s="1" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8573,13 +8774,13 @@
         <v>1</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="E163" s="1" t="n">
         <v>5</v>
@@ -8588,7 +8789,7 @@
         <v>56</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="H163" s="1" t="n">
         <v>5</v>
@@ -8645,10 +8846,10 @@
         <v>5</v>
       </c>
       <c r="AA163" s="1" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="AD163" s="1" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="AE163" s="2" t="n">
         <v>2</v>
@@ -8666,16 +8867,16 @@
         <v>0</v>
       </c>
       <c r="AJ163" s="1" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="AK163" s="1" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="AL163" s="1" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="AM163" s="1" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="AN163" s="1" t="n">
         <v>1</v>
@@ -8686,13 +8887,13 @@
         <v>2</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="E164" s="1" t="n">
         <v>5</v>
@@ -8701,7 +8902,7 @@
         <v>56</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="H164" s="1" t="n">
         <v>4</v>
@@ -8758,10 +8959,10 @@
         <v>6</v>
       </c>
       <c r="AA164" s="1" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="AD164" s="1" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="AE164" s="2" t="n">
         <v>2</v>
@@ -8779,16 +8980,16 @@
         <v>0</v>
       </c>
       <c r="AJ164" s="1" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="AK164" s="1" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="AL164" s="5" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="AM164" s="1" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8796,13 +8997,13 @@
         <v>3</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="E165" s="1" t="n">
         <v>6</v>
@@ -8811,7 +9012,7 @@
         <v>56</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="H165" s="1" t="n">
         <v>3</v>
@@ -8868,13 +9069,13 @@
         <v>6</v>
       </c>
       <c r="AA165" s="1" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="AB165" s="1" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="AD165" s="1" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="AE165" s="2" t="n">
         <v>3</v>
@@ -8892,16 +9093,16 @@
         <v>0</v>
       </c>
       <c r="AJ165" s="1" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="AK165" s="1" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="AL165" s="5" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="AM165" s="1" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="AN165" s="1" t="n">
         <v>1</v>
@@ -8912,13 +9113,13 @@
         <v>4</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="E166" s="1" t="n">
         <v>4</v>
@@ -8927,7 +9128,7 @@
         <v>56</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="H166" s="1" t="n">
         <v>3</v>
@@ -8978,7 +9179,7 @@
         <v>4</v>
       </c>
       <c r="AD166" s="1" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="AE166" s="2" t="n">
         <v>3</v>
@@ -8996,16 +9197,16 @@
         <v>0</v>
       </c>
       <c r="AJ166" s="1" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="AK166" s="1" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="AL166" s="5" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="AM166" s="1" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>

--- a/GameMasterGuide/Data/Beasts/beasts.xlsx
+++ b/GameMasterGuide/Data/Beasts/beasts.xlsx
@@ -2144,11 +2144,11 @@
   <dimension ref="A1:AN166"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AE27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C52" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AE1" activeCellId="0" sqref="AE1"/>
-      <selection pane="bottomLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
-      <selection pane="bottomRight" activeCell="AL28" activeCellId="0" sqref="AL28"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A52" activeCellId="0" sqref="A52"/>
+      <selection pane="bottomRight" activeCell="B56" activeCellId="0" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5778,7 +5778,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="93.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="n">
         <v>2</v>
       </c>
@@ -5830,7 +5830,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="n">
         <v>4</v>
       </c>

--- a/GameMasterGuide/Data/Beasts/beasts.xlsx
+++ b/GameMasterGuide/Data/Beasts/beasts.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$2:$AN$160</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$2:$AN$157</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="550">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -1013,18 +1013,34 @@
     <t xml:space="preserve">Demiguise</t>
   </si>
   <si>
+    <t xml:space="preserve">Demiguise are peaceful, herbivorous magical creatures native to the Far East. These highly magical creatures have been hunted to near-extinction by wizardkind due to their incredible ability to turn invisible – the pelt of a Demiguise can therefore be used in the construction of \imp{Cloaks of Invisibility}. 
+Demiguise have precious little ability to defend themselves, though they do have \imp{Precognitive Sight} which allows them to see just a few seconds into the future, and hence they excel at evading threats, if not negating them. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">\melee{Bite}{3}{-2}{Stabbing Damage}{1 + Successes}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\skill{Elusion}{7}
+\skill{Covert}{5}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Invisibility}{A \name{} may use their \imp{Elusion} skill to become completely invisible to the naked eye. By expending a \imp{Fortitude} point, they may also evade magical detection.}
+\ability{Precognition}{A \name{} sees slightly into the future, and so always beats all other \imp{Reflex} rolls, and gains +4d to one \imp{Resist} roll per cycle. 
+In the case of multiple creatures possessing this ability, they perform their own \imp{Reflex} roll amongst themselves to determine who goes first. }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">demiguise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ankylosaurus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dinosaurs</t>
+  </si>
+  <si>
     <t xml:space="preserve">\blindtext{2}</t>
   </si>
   <si>
-    <t xml:space="preserve">demiguise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ankylosaurus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dinosaurs</t>
-  </si>
-  <si>
     <t xml:space="preserve">Diplodocus</t>
   </si>
   <si>
@@ -1088,67 +1104,130 @@
     <t xml:space="preserve">Ukranian Ironbelly</t>
   </si>
   <si>
-    <t xml:space="preserve">Avatar of Fire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elemental Avatar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elemental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avatar of Ice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avatar of Storms</t>
-  </si>
-  <si>
     <t xml:space="preserve">House-Elf</t>
   </si>
   <si>
-    <t xml:space="preserve">Elf</t>
+    <t xml:space="preserve">Elves</t>
   </si>
   <si>
     <t xml:space="preserve">A House-Elf is a small impish humanoid creature which has been bound, or inherited a binding, to a given master. House-Elves are incredibly devoted to these masters, and will obey every order given to them. Typically treated as household servants, their magic is dedicated to the upkeep of the home and, on incredibly rare occasions, the repelling of intruders. </t>
   </si>
   <si>
+    <t xml:space="preserve">Crushing damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Elf Magic}{A \name{} can use their \imp{Spellcasting} ability to cast the \imp{Apparate}, \imp{Force}, \imp{Move}, \imp{Repair}, \imp{Animate} and \imp{Shield} spells}
+\melee{Kitchen Knife}{4}{-1}{Stabbing/Cutting damage}{1 + Successes}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\skill{Spellcasting}{3}
+\skill{Covert}{2}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Elf Magic}{Elf-Magic is almost completely alien to wizardkind. \imp{Abjure} spells do not dispel their magic, and wards to prevent their  inherent ability to teleport do not work.}
+\ability{Teleporting Step}{\name{} may use their natural magical ability to \imp{Teleport} their movement, rather than walk it. They can use this to escape from non-magical bindings holding them in place. }</t>
+  </si>
+  <si>
     <t xml:space="preserve">brownie</t>
   </si>
   <si>
     <t xml:space="preserve">Br{\'u}nb{\'a}su</t>
   </si>
   <si>
-    <t xml:space="preserve">It is said that the \name{} were the original species that were enslaved and magically altered over generations to become the House-Elves. Long considered extinct, the freeing of Dobby the House-Elf, the first Free-Elf in 1000 years, has led to a resurgence in the \name{} as a newly re-recognised species. 
+    <t xml:space="preserve">It is said that the \name{} (or `Brownies’) were the original species that were enslaved and magically altered over generations to become the House-Elves. Long considered extinct, the freeing of Dobby the House-Elf, the first Free-Elf in 1000 years, has led to a resurgence in the \name{} as a newly re-recognised species. 
 Though rejecting their former enslavement, the \name{} retain a love of order and cleanliness, and will often do chores for a household – on the condition of respect and equitable payment. They are easily offended, and if they feel denigrated or slighted, they will wreck the place, and will never return. </t>
   </si>
   <si>
+    <t xml:space="preserve">\speaks{Human languages, Fey}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Elf Magic}{A \name{} can use their \imp{Spellcasting} ability to cast the \imp{Apparate}, \imp{Force}, \imp{Move}, \imp{Repair}, \imp{Animate}, \imp{Heal}, \imp{Slumber}, \imp{Compel} and \imp{Shield} spells}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\skill{Spellcasting}{4}
+\skill{Covert}{3}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Elf Magic}{Elf-Magic is almost completely alien to wizardkind. \imp{Abjure} spells do not dispel their magic, and wards to prevent their  inherent ability to teleport do not work.}
+\ability{Teleporting Step}{\name{} may use their natural magical ability to \imp{Teleport} their movement, rather than walk it. They can use this to escape from non-magical bindings holding them in place. }
+\ability{Free Spirit}{Free from their long enslavement, the \name{} are in no hurry to lose their free will once again: they gain +4d to any check to compel, control, charm or otherwise remove their ability to think for themselves.}</t>
+  </si>
+  <si>
     <t xml:space="preserve">dobby</t>
   </si>
   <si>
-    <t xml:space="preserve">Elleng\ae{}st</t>
+    <t xml:space="preserve">\ellengaest</t>
   </si>
   <si>
     <t xml:space="preserve">The archetypal impish prankster, the \name{}, also known as a `Puck’, or a `True Imp’ competes only with the Poltergeist for the mischief-maker\apos{}s crown. They adore slapstick comedy and petty theft, often building themselves a nest out of their stolen objects. 
 Visually, an \name{} appears to be a small, flightless fairy; a slender humanoid, approximately a foot tall. Their mouth is filled with a disturbing number of teeth, but they’re too small to harm a human, and are used to supply their mostly-insect based diet. </t>
   </si>
   <si>
+    <t xml:space="preserve">\ability{Elf Magic}{A \name{} can use their \imp{Spellcasting} ability to cast the \imp{Apparate}, \imp{Conceal}, \imp{Distract}, \imp{Mirage}, \imp{Move}, \imp{Delude}, \imp{Bypass} and \imp{Corrupt} spells}  
+\ability{Pickpocket}{When making contact with a being, a \name{} can use a \imp{Major Action} to steal a random item from the \imp{Inventory} of the target.}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Elf Magic}{Elf-Magic is almost completely alien to wizardkind. \imp{Abjure} spells do not dispel their magic, and wards to prevent their  inherent ability to teleport do not work.}  \ability{Teleporting Step}{\name{} may use their natural magical ability to \imp{Teleport} their movement, rather than walk it. They can use this to escape from non-magical bindings holding them in place. }</t>
+  </si>
+  <si>
     <t xml:space="preserve">imp</t>
   </si>
   <si>
-    <t xml:space="preserve">Dun\ae{}lf</t>
+    <t xml:space="preserve">\dunaelf</t>
   </si>
   <si>
     <t xml:space="preserve">The warriors and guardians of the Elves, the \name{} make great use of their nimble nature and their ability to turn invisible, more than making up for their diminutive stature. The \name{} also wield magical bows which inflict agonising pain on their targets. </t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">\ability{Elfin Strike}{A \name{} performs a \imp{Precision (Elusion)} check against the highest passive \imp{Perception} of their foes. On a success, the \name{} uses a single major action to \imp{Move}, make an \imp{Elfshot} and then \imp{Phase}, on a failure, their turn ends.}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">\ability{Phase}{A \name{} may use a \imp{MInor} action to use their \imp{Elusion} ability to become invisible}
+\rangedConsequence{Elfshot}{25}{7}{-1}{Psychic/Stabbing}{1 + Successes}{For each previous \imp{Elfshot} a target has suffered damage from, the \name{} gets one additional auto-success.}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">\skill{Elusion}{4}
+\skill{Covert}{5}
+\skill{Marksmanship}{4}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Elf Magic}{Elf-Magic is almost completely alien to wizardkind. \imp{Abjure} spells do not dispel their magic, and wards to prevent their  inherent ability to teleport do not work.}
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">dunaelf</t>
   </si>
   <si>
-    <t xml:space="preserve">V\ae{}ttir</t>
+    <t xml:space="preserve">Vaettir</t>
   </si>
   <si>
     <t xml:space="preserve">The least human-like of the elves, the \name{} are a species of elves which have an affinity for the primal elements, and the associated magics. 
 Though capable of wielding all of the elements, many \name{} find themselves drawn to one element in particular. This reflects in their outwards appearance, which slowly begins to shift and change. A fire-bound \name{} grows a fiery red beard and orange eyes, whilst a water-bound \name{}\apos{}s skin turns blue and appears permanently damp. Current arcane knowledge has found no additional abilities granted with this change, so it is unknown if there is any particular reason for this `bonding’ process to occur. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Elf Magic}{A \name{} can use their \imp{Spellcasting} ability to cast all spells from the \imp{Elemental} discipline, as well as the \imp{Move}, \imp{Apparate}, \imp{Stun} and \imp{Shield} spells.}
+\ability{Primal Feedback}{As a \imp{Defensive Action}, a \name{} may turn all the successes rolled on an \imp{Elemental} spellcasting effort into \imp{Catastrophes}. }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\skill{Spellcasting}{5}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Elf Magic}{Elf-Magic is almost completely alien to wizardkind. \imp{Abjure} spells do not dispel their magic, and wards to prevent their  inherent ability to teleport do not work.}
+</t>
   </si>
   <si>
     <t xml:space="preserve">vaettir</t>
@@ -1162,8 +1241,7 @@
 Each Court is ruled over by an Elf-Prince, the most powerful \name{} in the Court, as well as their advisors and attendants. Typically these offices are all held by other \name{}s, though rarely you may find a Dun\ae{}lf or V\ae{}ttir who has risen through the ranks of the Court to serve in these lofty positions. 
 Even those elves which reside on Earth are (technically) members of a Court, and must obey the summons from their Prince when it is time for them to attend their Seelie Court, failure to do so leads to expulsion (or worse). In reality, however, the Seelie Courts are rarely called in such a manner and Earthbound elves may not even know that they belong to a Court until the summons arrives. 
 The \name{} wield immense and powerful magic, which they primarily use to cause mischief, mayhem and to disrupt the plans of the other members of the courts. The most famous conflict between various courts is that between Oberon and Titania, with the conflict spilling over into the Mortal Plane on more than one occasion, even making its way into the muggle subconscious. 
-On rare occasions a Court can become corrupted by evil – either due to the profane actions of the Prince themselves, or because of some external corrupting influence such as a Voidic Incursion. A corrupted court is known as an {\it Unseelie Court}, and is often a source of violence, conflict and further corruption. 
-Though not all \name{}s are Elf-Princes, those which are have access to the specified {\it Lair Actions} whilst they remain in their Court. </t>
+On rare occasions a Court can become corrupted by evil – either due to the profane actions of the Prince themselves, or because of some external corrupting influence such as a Voidic Incursion. A corrupted court is known as an {\it Unseelie Court}, and is often a source of violence, conflict and further corruption. </t>
   </si>
   <si>
     <t xml:space="preserve">huldufolk</t>
@@ -1416,10 +1494,13 @@
     <t xml:space="preserve">\name{}s are lesser elementals hailing from the Radiant Gardens, the Elemental plane of light. They are crystalline creatures, and glow with an inner radiance which shifts and refracts through their bodies as they move. </t>
   </si>
   <si>
+    <t xml:space="preserve">Elemental</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bludgeoning</t>
   </si>
   <si>
-    <t xml:space="preserve">\speaks{Celestial}</t>
+    <t xml:space="preserve">\speaks{Empyrean}</t>
   </si>
   <si>
     <t xml:space="preserve">\ability{Crystal Shards}{Whenever the \name{} takes physical damage, they may choose to take an additional level of harm to deflect fragments of their body into a creatue within 2m, dealing level 5 \imp{Stabbing} damage.}
@@ -1446,7 +1527,7 @@
     <t xml:space="preserve">All physical damage</t>
   </si>
   <si>
-    <t xml:space="preserve">\ranged{Evaporating Blast}{100}{6}{-1}{Celestial}{1 + Successes}
+    <t xml:space="preserve">\ranged{Evaporating Blast}{100}{6}{-1}{Incandescent}{1 + Successes}
 \ability{Elemental Magic}{The \name{} may use its \imp{Spellcasting} ability to cast spells. It knows the \imp{Illuminate}, \imp{Fire} and \imp{Move} spells.}</t>
   </si>
   <si>
@@ -1974,7 +2055,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2009,6 +2090,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2075,7 +2161,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2120,6 +2206,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -2141,14 +2231,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AN166"/>
+  <dimension ref="A1:AN163"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E162" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A52" activeCellId="0" sqref="A52"/>
-      <selection pane="bottomRight" activeCell="B56" activeCellId="0" sqref="B56"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A162" activeCellId="0" sqref="A162"/>
+      <selection pane="bottomRight" activeCell="F163" activeCellId="0" sqref="F163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5266,7 +5356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="128.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6"/>
       <c r="B30" s="7" t="s">
         <v>252</v>
@@ -5286,20 +5376,95 @@
       <c r="G30" s="6" t="s">
         <v>129</v>
       </c>
+      <c r="H30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O30" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P30" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="U30" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W30" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="X30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AK30" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AL30" s="1" t="s">
+        <v>256</v>
+      </c>
       <c r="AM30" s="6" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6"/>
       <c r="B31" s="6" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>5</v>
@@ -5314,13 +5479,13 @@
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6"/>
       <c r="B32" s="6" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>4</v>
@@ -5335,13 +5500,13 @@
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6"/>
       <c r="B33" s="6" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E33" s="6" t="n">
         <v>4</v>
@@ -5356,13 +5521,13 @@
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6"/>
       <c r="B34" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>256</v>
-      </c>
       <c r="D34" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>3</v>
@@ -5377,13 +5542,13 @@
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6"/>
       <c r="B35" s="6" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E35" s="6" t="n">
         <v>6</v>
@@ -5398,13 +5563,13 @@
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6"/>
       <c r="B36" s="6" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>4</v>
@@ -5419,13 +5584,13 @@
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6"/>
       <c r="B37" s="6" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>4</v>
@@ -5440,13 +5605,13 @@
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6"/>
       <c r="B38" s="6" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>5</v>
@@ -5461,13 +5626,13 @@
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6"/>
       <c r="B39" s="6" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E39" s="6" t="n">
         <v>3</v>
@@ -5482,13 +5647,13 @@
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6"/>
       <c r="B40" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E40" s="7" t="n">
         <v>6</v>
@@ -5497,19 +5662,19 @@
         <v>56</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6"/>
       <c r="B41" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E41" s="7" t="n">
         <v>6</v>
@@ -5518,19 +5683,19 @@
         <v>128</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6"/>
       <c r="B42" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E42" s="7" t="n">
         <v>6</v>
@@ -5539,19 +5704,19 @@
         <v>128</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6"/>
       <c r="B43" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>266</v>
-      </c>
       <c r="D43" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E43" s="7" t="n">
         <v>6</v>
@@ -5560,19 +5725,19 @@
         <v>128</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6"/>
       <c r="B44" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E44" s="7" t="n">
         <v>6</v>
@@ -5581,40 +5746,40 @@
         <v>128</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6"/>
       <c r="B45" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E45" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6"/>
       <c r="B46" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E46" s="7" t="n">
         <v>6</v>
@@ -5623,19 +5788,19 @@
         <v>56</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6"/>
       <c r="B47" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E47" s="7" t="n">
         <v>6</v>
@@ -5644,19 +5809,19 @@
         <v>128</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6"/>
       <c r="B48" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E48" s="7" t="n">
         <v>6</v>
@@ -5665,19 +5830,19 @@
         <v>56</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6"/>
       <c r="B49" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E49" s="7" t="n">
         <v>6</v>
@@ -5686,724 +5851,1117 @@
         <v>56</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="6"/>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="B50" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="E50" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H50" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I50" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P50" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S50" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U50" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="W50" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="X50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y50" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC50" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="AD50" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE50" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ50" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="AK50" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="AL50" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="AM50" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="E51" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H51" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I51" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O51" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P51" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="R51" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U51" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="W51" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="X51" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y51" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z51" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC51" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="AD51" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AE51" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ51" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="AK51" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AL51" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="AM51" s="6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="105.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="E52" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H52" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O52" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P52" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="F50" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="6"/>
-      <c r="B51" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E51" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E52" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="42.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S52" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="U52" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V52" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="W52" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="X52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y52" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z52" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC52" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="AD52" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AE52" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG52" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH52" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI52" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ52" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="AK52" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AL52" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="AM52" s="6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="175.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B53" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>284</v>
-      </c>
       <c r="D53" s="6" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="E53" s="6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G53" s="6" t="s">
+      <c r="G53" s="10" t="s">
         <v>173</v>
       </c>
+      <c r="H53" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I53" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J53" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M53" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O53" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P53" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="R53" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S53" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="T53" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U53" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V53" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="W53" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="X53" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y53" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z53" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC53" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="AD53" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AE53" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF53" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG53" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH53" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI53" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ53" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AK53" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="AL53" s="9" t="s">
+        <v>306</v>
+      </c>
       <c r="AM53" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>307</v>
+      </c>
+      <c r="AN53" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>287</v>
+        <v>5</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>308</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>288</v>
+        <v>309</v>
       </c>
       <c r="E54" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G54" s="6" t="s">
+      <c r="G54" s="10" t="s">
         <v>173</v>
       </c>
+      <c r="H54" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I54" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J54" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O54" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P54" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q54" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R54" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S54" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="T54" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="U54" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="W54" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="X54" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y54" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z54" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC54" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="AD54" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AE54" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF54" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH54" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI54" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ54" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="AK54" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="AL54" s="9" t="s">
+        <v>312</v>
+      </c>
       <c r="AM54" s="6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="72.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="287.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>290</v>
+        <v>6</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>314</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G55" s="6" t="s">
+      <c r="G55" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="AM55" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="AN55" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="6"/>
+      <c r="B56" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="E56" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G56" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="AM55" s="6" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="E56" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G56" s="9" t="s">
+      <c r="AM56" s="6"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="6"/>
+      <c r="B57" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="E57" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G57" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="AM56" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="AN56" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="93.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="6" t="n">
+      <c r="AM57" s="6"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="6"/>
+      <c r="B58" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="E58" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="AM58" s="6"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="E59" s="6" t="n">
         <v>5</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="E57" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="AM57" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="AN57" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="318.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="E58" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G58" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="AM58" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="AN58" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="6"/>
-      <c r="B59" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E59" s="6" t="n">
-        <v>2</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>128</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>173</v>
+        <v>323</v>
       </c>
       <c r="AM59" s="6"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="6"/>
+      <c r="A60" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="B60" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>303</v>
+        <v>324</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>322</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E60" s="6" t="n">
-        <v>2</v>
+        <v>260</v>
+      </c>
+      <c r="E60" s="7" t="n">
+        <v>6</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>128</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>173</v>
+        <v>47</v>
       </c>
       <c r="AM60" s="6"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6"/>
       <c r="B61" s="7" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E61" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>128</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="AM61" s="6"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="A62" s="6"/>
       <c r="B62" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>307</v>
+        <v>327</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>326</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E62" s="6" t="n">
+        <v>260</v>
+      </c>
+      <c r="E62" s="7" t="n">
         <v>5</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>128</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>308</v>
+        <v>129</v>
       </c>
       <c r="AM62" s="6"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="6" t="n">
-        <v>2</v>
-      </c>
+      <c r="A63" s="6"/>
       <c r="B63" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>307</v>
+        <v>328</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>326</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E63" s="7" t="n">
-        <v>6</v>
+        <v>260</v>
+      </c>
+      <c r="E63" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>128</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="AM63" s="6"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6"/>
       <c r="B64" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>311</v>
+        <v>329</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>326</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E64" s="7" t="n">
-        <v>1</v>
+        <v>260</v>
+      </c>
+      <c r="E64" s="6" t="n">
+        <v>6</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>128</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="AM64" s="6"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6"/>
       <c r="B65" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>311</v>
+        <v>330</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E65" s="7" t="n">
-        <v>5</v>
+        <v>260</v>
+      </c>
+      <c r="E65" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>128</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>129</v>
+        <v>331</v>
       </c>
       <c r="AM65" s="6"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6"/>
       <c r="B66" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>311</v>
+        <v>332</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>331</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E66" s="6" t="n">
+        <v>260</v>
+      </c>
+      <c r="E66" s="7" t="n">
         <v>1</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>128</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>129</v>
+        <v>331</v>
       </c>
       <c r="AM66" s="6"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6"/>
       <c r="B67" s="7" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E67" s="6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>128</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>104</v>
+        <v>331</v>
       </c>
       <c r="AM67" s="6"/>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="6"/>
-      <c r="B68" s="7" t="s">
-        <v>315</v>
+    <row r="68" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>334</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>253</v>
+        <v>336</v>
       </c>
       <c r="E68" s="6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="AM68" s="6"/>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="6"/>
-      <c r="B69" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>316</v>
+        <v>337</v>
+      </c>
+      <c r="AM68" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>335</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E69" s="7" t="n">
-        <v>1</v>
+        <v>340</v>
+      </c>
+      <c r="E69" s="6" t="n">
+        <v>4</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="AM69" s="6"/>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="6"/>
-      <c r="B70" s="7" t="s">
-        <v>318</v>
+        <v>337</v>
+      </c>
+      <c r="AM69" s="5" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="21.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>342</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>253</v>
+        <v>343</v>
       </c>
       <c r="E70" s="6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="AM70" s="6"/>
-    </row>
-    <row r="71" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>337</v>
+      </c>
+      <c r="AM70" s="6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>321</v>
+        <v>260</v>
       </c>
       <c r="E71" s="6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>56</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="AM71" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="6"/>
+      <c r="B72" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="E72" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G72" s="6" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="E72" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="AM72" s="5" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="21.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>327</v>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="6"/>
+      <c r="B73" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>320</v>
+        <v>348</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>328</v>
+        <v>260</v>
       </c>
       <c r="E73" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="AM73" s="6" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>330</v>
+      <c r="A74" s="6"/>
+      <c r="B74" s="7" t="s">
+        <v>350</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>320</v>
+        <v>348</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E74" s="6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="AM74" s="6" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6"/>
       <c r="B75" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>333</v>
+        <v>351</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E75" s="6" t="n">
-        <v>5</v>
+        <v>260</v>
+      </c>
+      <c r="E75" s="7" t="n">
+        <v>2</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>308</v>
+        <v>239</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6"/>
       <c r="B76" s="7" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E76" s="6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>308</v>
+        <v>239</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6"/>
       <c r="B77" s="7" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E77" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6"/>
       <c r="B78" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>337</v>
+        <v>355</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>355</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E78" s="7" t="n">
-        <v>2</v>
+        <v>260</v>
+      </c>
+      <c r="E78" s="6" t="n">
+        <v>5</v>
       </c>
       <c r="F78" s="6" t="s">
         <v>56</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>239</v>
+        <v>356</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6"/>
       <c r="B79" s="7" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E79" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>239</v>
+        <v>356</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6"/>
       <c r="B80" s="7" t="s">
-        <v>339</v>
+        <v>358</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E80" s="6" t="n">
         <v>5</v>
@@ -6412,172 +6970,172 @@
         <v>56</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6"/>
       <c r="B81" s="7" t="s">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E81" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>341</v>
+        <v>156</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6"/>
-      <c r="B82" s="7" t="s">
-        <v>342</v>
+      <c r="B82" s="6" t="s">
+        <v>360</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E82" s="6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>56</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>341</v>
+        <v>156</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6"/>
       <c r="B83" s="7" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E83" s="6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>341</v>
+        <v>239</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6"/>
       <c r="B84" s="7" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E84" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>156</v>
+        <v>239</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6"/>
-      <c r="B85" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>345</v>
+      <c r="B85" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>365</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E85" s="6" t="n">
-        <v>5</v>
+        <v>260</v>
+      </c>
+      <c r="E85" s="7" t="n">
+        <v>3</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6"/>
       <c r="B86" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>347</v>
+        <v>366</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>365</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E86" s="6" t="n">
-        <v>3</v>
+        <v>260</v>
+      </c>
+      <c r="E86" s="7" t="n">
+        <v>2</v>
       </c>
       <c r="F86" s="6" t="s">
         <v>128</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>239</v>
+        <v>173</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6"/>
       <c r="B87" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>347</v>
+        <v>367</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>365</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E87" s="6" t="n">
+        <v>260</v>
+      </c>
+      <c r="E87" s="7" t="n">
         <v>5</v>
       </c>
       <c r="F87" s="6" t="s">
         <v>56</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>239</v>
+        <v>173</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6"/>
       <c r="B88" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>350</v>
+        <v>368</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>365</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E88" s="7" t="n">
-        <v>3</v>
+        <v>260</v>
+      </c>
+      <c r="E88" s="6" t="n">
+        <v>2</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="G88" s="6" t="s">
         <v>173</v>
@@ -6586,79 +7144,79 @@
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6"/>
       <c r="B89" s="7" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E89" s="7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F89" s="6" t="s">
         <v>128</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6"/>
       <c r="B90" s="7" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E90" s="7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6"/>
-      <c r="B91" s="7" t="s">
-        <v>353</v>
+      <c r="B91" s="6" t="s">
+        <v>372</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E91" s="6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>173</v>
+        <v>215</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6"/>
       <c r="B92" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>355</v>
+        <v>373</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>374</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E92" s="7" t="n">
-        <v>4</v>
+        <v>260</v>
+      </c>
+      <c r="E92" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="F92" s="6" t="s">
         <v>128</v>
@@ -6670,16 +7228,16 @@
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6"/>
       <c r="B93" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>355</v>
+        <v>375</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>374</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E93" s="7" t="n">
-        <v>4</v>
+        <v>260</v>
+      </c>
+      <c r="E93" s="6" t="n">
+        <v>2</v>
       </c>
       <c r="F93" s="6" t="s">
         <v>128</v>
@@ -6690,38 +7248,38 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6"/>
-      <c r="B94" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>357</v>
+      <c r="B94" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>374</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E94" s="6" t="n">
-        <v>5</v>
+        <v>260</v>
+      </c>
+      <c r="E94" s="7" t="n">
+        <v>3</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>215</v>
+        <v>129</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6"/>
       <c r="B95" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>359</v>
+        <v>377</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>374</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E95" s="6" t="n">
-        <v>1</v>
+        <v>260</v>
+      </c>
+      <c r="E95" s="7" t="n">
+        <v>3</v>
       </c>
       <c r="F95" s="6" t="s">
         <v>128</v>
@@ -6733,16 +7291,16 @@
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6"/>
       <c r="B96" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>359</v>
+        <v>378</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>374</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E96" s="6" t="n">
-        <v>2</v>
+        <v>260</v>
+      </c>
+      <c r="E96" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="F96" s="6" t="s">
         <v>128</v>
@@ -6754,16 +7312,16 @@
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6"/>
       <c r="B97" s="7" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E97" s="7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F97" s="6" t="s">
         <v>128</v>
@@ -6775,16 +7333,16 @@
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6"/>
       <c r="B98" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>359</v>
+        <v>380</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>374</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E98" s="7" t="n">
-        <v>3</v>
+        <v>260</v>
+      </c>
+      <c r="E98" s="6" t="n">
+        <v>2</v>
       </c>
       <c r="F98" s="6" t="s">
         <v>128</v>
@@ -6793,519 +7351,522 @@
         <v>129</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="6"/>
+    <row r="99" customFormat="false" ht="52.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="B99" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>359</v>
+        <v>381</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>382</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E99" s="7" t="n">
-        <v>0</v>
+        <v>383</v>
+      </c>
+      <c r="E99" s="6" t="n">
+        <v>6</v>
       </c>
       <c r="F99" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="83.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="E100" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM100" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="AN100" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="124.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="E101" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="AM101" s="6"/>
+    </row>
+    <row r="102" customFormat="false" ht="420.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="E102" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="AM102" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="AN102" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="E103" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="H103" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I103" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K103" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O103" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P103" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q103" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="R103" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S103" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T103" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U103" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V103" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="W103" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="X103" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y103" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z103" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA103" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB103" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC103" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="AD103" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="AE103" s="2" t="n">
+        <v>-3</v>
+      </c>
+      <c r="AF103" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG103" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH103" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI103" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ103" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="AK103" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="AL103" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="AM103" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="70.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="E104" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="H104" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="L104" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="O104" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P104" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q104" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="R104" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="S104" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T104" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="U104" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="V104" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="W104" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="X104" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y104" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z104" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA104" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB104" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="AD104" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="AE104" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF104" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG104" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH104" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI104" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ104" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="AK104" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AL104" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="AM104" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="AN104" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="185.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="E105" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F105" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G99" s="6" t="s">
+      <c r="G105" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="H105" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I105" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J105" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="K105" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L105" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="O105" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P105" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q105" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="R105" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="S105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T105" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U105" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="V105" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="W105" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="X105" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y105" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z105" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA105" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="AD105" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="AE105" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF105" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG105" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH105" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI105" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ105" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="AK105" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="AL105" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="AM105" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="AN105" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="6"/>
+      <c r="B106" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="E106" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G106" s="6" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="6"/>
-      <c r="B100" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E100" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F100" s="6" t="s">
+      <c r="AM106" s="6"/>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="6"/>
+      <c r="B107" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="E107" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F107" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G100" s="6" t="s">
+      <c r="G107" s="6" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="6"/>
-      <c r="B101" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E101" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F101" s="6" t="s">
+      <c r="AM107" s="6"/>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="6"/>
+      <c r="B108" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="E108" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F108" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G101" s="6" t="s">
+      <c r="G108" s="6" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="102" customFormat="false" ht="52.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="E102" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="F102" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G102" s="6" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="83.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="D103" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="E103" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="F103" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G103" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM103" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="AN103" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="124.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="E104" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="F104" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G104" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="AM104" s="6"/>
-    </row>
-    <row r="105" customFormat="false" ht="420.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="E105" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="F105" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G105" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="AM105" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="AN105" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="E106" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="H106" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J106" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K106" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O106" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="P106" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q106" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="R106" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="S106" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T106" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U106" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="V106" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="W106" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="X106" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y106" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z106" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA106" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB106" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="AC106" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="AD106" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="AE106" s="2" t="n">
-        <v>-3</v>
-      </c>
-      <c r="AF106" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG106" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH106" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI106" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ106" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="AK106" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="AL106" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="AM106" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="E107" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="H107" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="L107" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="O107" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P107" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q107" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="R107" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="S107" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T107" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="U107" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="V107" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="W107" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="X107" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y107" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z107" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA107" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB107" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="AD107" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="AE107" s="2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AF107" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG107" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH107" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI107" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ107" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="AK107" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="AL107" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="AM107" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="AN107" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="185.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="E108" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="H108" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I108" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="J108" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="K108" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L108" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="O108" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="P108" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q108" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="R108" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="S108" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T108" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="U108" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="V108" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="W108" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="X108" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y108" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z108" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA108" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="AD108" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="AE108" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF108" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG108" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH108" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI108" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ108" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="AK108" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="AL108" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="AM108" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="AN108" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="AM108" s="6"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="6"/>
       <c r="B109" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>401</v>
+        <v>420</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>417</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E109" s="7" t="n">
+        <v>260</v>
+      </c>
+      <c r="E109" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F109" s="6" t="s">
@@ -7319,16 +7880,16 @@
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="6"/>
       <c r="B110" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>401</v>
+        <v>421</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>417</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E110" s="7" t="n">
-        <v>2</v>
+        <v>260</v>
+      </c>
+      <c r="E110" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="F110" s="6" t="s">
         <v>128</v>
@@ -7341,16 +7902,16 @@
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6"/>
       <c r="B111" s="7" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E111" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F111" s="6" t="s">
         <v>128</v>
@@ -7363,35 +7924,35 @@
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6"/>
       <c r="B112" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>401</v>
+        <v>423</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>423</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E112" s="6" t="n">
-        <v>2</v>
+        <v>260</v>
+      </c>
+      <c r="E112" s="7" t="n">
+        <v>6</v>
       </c>
       <c r="F112" s="6" t="s">
         <v>128</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="AM112" s="6"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6"/>
       <c r="B113" s="7" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E113" s="6" t="n">
         <v>1</v>
@@ -7407,13 +7968,13 @@
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="6"/>
       <c r="B114" s="7" t="s">
-        <v>406</v>
+        <v>426</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E114" s="6" t="n">
         <v>2</v>
@@ -7429,241 +7990,241 @@
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6"/>
       <c r="B115" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>407</v>
+        <v>427</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>427</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E115" s="7" t="n">
-        <v>6</v>
+        <v>260</v>
+      </c>
+      <c r="E115" s="6" t="n">
+        <v>7</v>
       </c>
       <c r="F115" s="6" t="s">
         <v>128</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="AM115" s="6"/>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6"/>
       <c r="B116" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>409</v>
+        <v>428</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>429</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E116" s="6" t="n">
-        <v>1</v>
+        <v>260</v>
+      </c>
+      <c r="E116" s="7" t="n">
+        <v>3</v>
       </c>
       <c r="F116" s="6" t="s">
         <v>128</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>129</v>
+        <v>337</v>
       </c>
       <c r="AM116" s="6"/>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6"/>
       <c r="B117" s="7" t="s">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E117" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>129</v>
+        <v>337</v>
       </c>
       <c r="AM117" s="6"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6"/>
       <c r="B118" s="7" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E118" s="6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F118" s="6" t="s">
         <v>128</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>129</v>
+        <v>337</v>
       </c>
       <c r="AM118" s="6"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6"/>
       <c r="B119" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="C119" s="7" t="s">
-        <v>413</v>
+        <v>432</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>433</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E119" s="7" t="n">
-        <v>3</v>
+        <v>260</v>
+      </c>
+      <c r="E119" s="6" t="n">
+        <v>5</v>
       </c>
       <c r="F119" s="6" t="s">
         <v>128</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>322</v>
+        <v>47</v>
       </c>
       <c r="AM119" s="6"/>
     </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="21.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6"/>
       <c r="B120" s="7" t="s">
-        <v>414</v>
+        <v>434</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>413</v>
+        <v>433</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>253</v>
+        <v>435</v>
       </c>
       <c r="E120" s="6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="AM120" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="AM120" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="AN120" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6"/>
       <c r="B121" s="7" t="s">
-        <v>415</v>
+        <v>437</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>413</v>
+        <v>433</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E121" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>322</v>
+        <v>47</v>
       </c>
       <c r="AM121" s="6"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6"/>
       <c r="B122" s="7" t="s">
-        <v>416</v>
+        <v>438</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>417</v>
+        <v>439</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E122" s="6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F122" s="6" t="s">
         <v>128</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="AM122" s="6"/>
     </row>
-    <row r="123" customFormat="false" ht="21.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6"/>
       <c r="B123" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>417</v>
+        <v>440</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>439</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="E123" s="6" t="n">
-        <v>7</v>
+        <v>260</v>
+      </c>
+      <c r="E123" s="7" t="n">
+        <v>2</v>
       </c>
       <c r="F123" s="6" t="s">
         <v>128</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM123" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="AN123" s="1" t="n">
-        <v>1</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="AM123" s="6"/>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6"/>
       <c r="B124" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>417</v>
+        <v>441</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>439</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E124" s="6" t="n">
-        <v>4</v>
+        <v>260</v>
+      </c>
+      <c r="E124" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="AM124" s="6"/>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6"/>
       <c r="B125" s="7" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E125" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F125" s="6" t="s">
         <v>128</v>
@@ -7676,392 +8237,410 @@
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6"/>
       <c r="B126" s="7" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>423</v>
+        <v>444</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E126" s="7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="AM126" s="6"/>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="6"/>
       <c r="B127" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="C127" s="7" t="s">
-        <v>423</v>
+        <v>445</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>444</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E127" s="7" t="n">
-        <v>1</v>
+        <v>260</v>
+      </c>
+      <c r="E127" s="6" t="n">
+        <v>3</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="AM127" s="6"/>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6"/>
       <c r="B128" s="7" t="s">
-        <v>426</v>
+        <v>446</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>423</v>
+        <v>444</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E128" s="6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="AM128" s="6"/>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6"/>
       <c r="B129" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="C129" s="7" t="s">
-        <v>428</v>
+        <v>447</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>448</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E129" s="7" t="n">
-        <v>4</v>
+        <v>260</v>
+      </c>
+      <c r="E129" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="AM129" s="6"/>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6"/>
       <c r="B130" s="7" t="s">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E130" s="6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="AM130" s="6"/>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="6"/>
       <c r="B131" s="7" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>428</v>
+        <v>450</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E131" s="6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="AM131" s="6"/>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6"/>
       <c r="B132" s="7" t="s">
-        <v>431</v>
+        <v>451</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E132" s="6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>129</v>
+        <v>453</v>
       </c>
       <c r="AM132" s="6"/>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6"/>
-      <c r="B133" s="7" t="s">
-        <v>433</v>
+      <c r="B133" s="6" t="s">
+        <v>454</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E133" s="6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>129</v>
+        <v>453</v>
       </c>
       <c r="AM133" s="6"/>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="6"/>
       <c r="B134" s="7" t="s">
-        <v>434</v>
+        <v>455</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>434</v>
+        <v>456</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E134" s="6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F134" s="6" t="s">
         <v>56</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>47</v>
+        <v>156</v>
       </c>
       <c r="AM134" s="6"/>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="6"/>
       <c r="B135" s="7" t="s">
-        <v>435</v>
+        <v>457</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>436</v>
+        <v>458</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E135" s="6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>437</v>
+        <v>395</v>
       </c>
       <c r="AM135" s="6"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6"/>
-      <c r="B136" s="6" t="s">
-        <v>438</v>
+      <c r="B136" s="7" t="s">
+        <v>459</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>436</v>
+        <v>458</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E136" s="6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>437</v>
+        <v>395</v>
       </c>
       <c r="AM136" s="6"/>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="6"/>
       <c r="B137" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="C137" s="6" t="s">
-        <v>440</v>
+        <v>460</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>458</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E137" s="6" t="n">
+        <v>260</v>
+      </c>
+      <c r="E137" s="7" t="n">
         <v>3</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>156</v>
+        <v>395</v>
       </c>
       <c r="AM137" s="6"/>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="6"/>
       <c r="B138" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="C138" s="6" t="s">
-        <v>442</v>
+        <v>461</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>458</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E138" s="6" t="n">
-        <v>3</v>
+        <v>260</v>
+      </c>
+      <c r="E138" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="F138" s="6" t="s">
         <v>128</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>280</v>
+        <v>395</v>
       </c>
       <c r="AM138" s="6"/>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="6"/>
       <c r="B139" s="7" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E139" s="6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>280</v>
+        <v>156</v>
       </c>
       <c r="AM139" s="6"/>
     </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="6"/>
+    <row r="140" customFormat="false" ht="62.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="B140" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="C140" s="7" t="s">
-        <v>442</v>
+        <v>464</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>465</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E140" s="7" t="n">
-        <v>3</v>
+        <v>466</v>
+      </c>
+      <c r="E140" s="6" t="n">
+        <v>5</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="AM140" s="6"/>
-    </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="6"/>
-      <c r="B141" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="C141" s="7" t="s">
-        <v>442</v>
+        <v>215</v>
+      </c>
+      <c r="AM140" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="AN140" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="42.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>465</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E141" s="7" t="n">
-        <v>1</v>
+        <v>469</v>
+      </c>
+      <c r="E141" s="6" t="n">
+        <v>6</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="AM141" s="6"/>
-    </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="6"/>
-      <c r="B142" s="7" t="s">
-        <v>446</v>
+        <v>215</v>
+      </c>
+      <c r="AM141" s="6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>471</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>447</v>
+        <v>465</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>253</v>
+        <v>472</v>
       </c>
       <c r="E142" s="6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F142" s="6" t="s">
         <v>72</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="AM142" s="6"/>
-    </row>
-    <row r="143" customFormat="false" ht="62.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>448</v>
+        <v>215</v>
+      </c>
+      <c r="AM142" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="AN142" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>474</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="E143" s="6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F143" s="6" t="s">
         <v>72</v>
@@ -8070,27 +8649,27 @@
         <v>215</v>
       </c>
       <c r="AM143" s="6" t="s">
-        <v>451</v>
+        <v>476</v>
       </c>
       <c r="AN143" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="42.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="10" t="n">
-        <v>2</v>
+    <row r="144" customFormat="false" ht="226.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="11" t="n">
+        <v>5</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>452</v>
+        <v>477</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>453</v>
+        <v>478</v>
       </c>
       <c r="E144" s="6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F144" s="6" t="s">
         <v>72</v>
@@ -8099,546 +8678,789 @@
         <v>215</v>
       </c>
       <c r="AM144" s="6" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="B145" s="6" t="s">
-        <v>455</v>
+        <v>479</v>
+      </c>
+      <c r="AN144" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="6"/>
+      <c r="B145" s="7" t="s">
+        <v>480</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>449</v>
+        <v>480</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>456</v>
+        <v>260</v>
       </c>
       <c r="E145" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F145" s="6" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="G145" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="AM145" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="AN145" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B146" s="6" t="s">
-        <v>458</v>
+        <v>47</v>
+      </c>
+      <c r="AM145" s="6"/>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="6"/>
+      <c r="B146" s="7" t="s">
+        <v>481</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>449</v>
+        <v>481</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>459</v>
+        <v>260</v>
       </c>
       <c r="E146" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="AM146" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="AN146" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="226.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B147" s="6" t="s">
-        <v>461</v>
+        <v>395</v>
+      </c>
+      <c r="AM146" s="6"/>
+    </row>
+    <row r="147" customFormat="false" ht="108.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="6"/>
+      <c r="B147" s="7" t="s">
+        <v>482</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>449</v>
+        <v>483</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>462</v>
+        <v>484</v>
       </c>
       <c r="E147" s="6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F147" s="6" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>215</v>
+        <v>331</v>
+      </c>
+      <c r="H147" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I147" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N147" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O147" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P147" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q147" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="R147" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S147" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T147" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U147" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="V147" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="W147" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="X147" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y147" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z147" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA147" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="AB147" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="AC147" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AE147" s="2" t="n">
+        <v>-3</v>
+      </c>
+      <c r="AF147" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG147" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH147" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI147" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ147" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="AK147" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="AL147" s="1" t="s">
+        <v>489</v>
       </c>
       <c r="AM147" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="AN147" s="1" t="n">
-        <v>1</v>
+        <v>490</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="6"/>
       <c r="B148" s="7" t="s">
-        <v>464</v>
+        <v>491</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>464</v>
+        <v>492</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E148" s="6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="AM148" s="6"/>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="6"/>
       <c r="B149" s="7" t="s">
-        <v>465</v>
+        <v>493</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>465</v>
+        <v>492</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E149" s="6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F149" s="6" t="s">
         <v>128</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>280</v>
+        <v>73</v>
       </c>
       <c r="AM149" s="6"/>
     </row>
-    <row r="150" customFormat="false" ht="108.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="6"/>
       <c r="B150" s="7" t="s">
-        <v>466</v>
+        <v>494</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>467</v>
+        <v>492</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>468</v>
+        <v>260</v>
       </c>
       <c r="E150" s="6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F150" s="6" t="s">
         <v>56</v>
       </c>
       <c r="G150" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="H150" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I150" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="N150" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="O150" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="P150" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q150" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="R150" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S150" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T150" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U150" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="V150" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="W150" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="X150" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y150" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z150" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA150" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="AB150" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="AC150" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="AE150" s="2" t="n">
-        <v>-3</v>
-      </c>
-      <c r="AF150" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG150" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH150" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI150" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ150" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="AK150" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="AL150" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="AM150" s="6" t="s">
-        <v>474</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="AM150" s="6"/>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="6"/>
       <c r="B151" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="C151" s="6" t="s">
-        <v>476</v>
+        <v>495</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>496</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E151" s="6" t="n">
-        <v>5</v>
+        <v>260</v>
+      </c>
+      <c r="E151" s="7" t="n">
+        <v>3</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="G151" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AM151" s="6"/>
+        <v>156</v>
+      </c>
+      <c r="AM151" s="6" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="6"/>
       <c r="B152" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="C152" s="6" t="s">
-        <v>476</v>
+        <v>498</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>496</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E152" s="6" t="n">
+        <v>260</v>
+      </c>
+      <c r="E152" s="7" t="n">
         <v>4</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="G152" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AM152" s="6"/>
-    </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>156</v>
+      </c>
+      <c r="AM152" s="6" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="6"/>
       <c r="B153" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="C153" s="6" t="s">
-        <v>476</v>
+        <v>500</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>496</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E153" s="6" t="n">
-        <v>6</v>
+        <v>260</v>
+      </c>
+      <c r="E153" s="7" t="n">
+        <v>5</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="G153" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM153" s="6"/>
+        <v>156</v>
+      </c>
+      <c r="AM153" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="AN153" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="6"/>
-      <c r="B154" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="C154" s="7" t="s">
-        <v>480</v>
+      <c r="B154" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>503</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E154" s="7" t="n">
-        <v>3</v>
+        <v>260</v>
+      </c>
+      <c r="E154" s="6" t="n">
+        <v>4</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="AM154" s="6" t="s">
-        <v>481</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="AM154" s="6"/>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="6"/>
-      <c r="B155" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="C155" s="7" t="s">
-        <v>480</v>
+      <c r="B155" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>503</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E155" s="7" t="n">
-        <v>4</v>
+        <v>260</v>
+      </c>
+      <c r="E155" s="6" t="n">
+        <v>6</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="G155" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="AM155" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>47</v>
+      </c>
+      <c r="AM155" s="6"/>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="6"/>
       <c r="B156" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="C156" s="7" t="s">
-        <v>480</v>
+        <v>505</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>506</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E156" s="7" t="n">
+        <v>260</v>
+      </c>
+      <c r="E156" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="AM156" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="AN156" s="1" t="n">
-        <v>1</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="AM156" s="6"/>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="6"/>
-      <c r="B157" s="6" t="s">
-        <v>486</v>
+      <c r="B157" s="7" t="s">
+        <v>507</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>487</v>
+        <v>506</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E157" s="6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F157" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G157" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="AM157" s="6"/>
+    </row>
+    <row r="158" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E158" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="H158" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I158" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J158" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O158" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P158" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q158" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="R158" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S158" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T158" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U158" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V158" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="W158" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X158" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y158" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z158" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA158" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="AE158" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF158" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG158" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH158" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI158" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ158" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="AK158" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="AL158" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="AM158" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="E159" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="H159" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I159" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O159" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P159" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q159" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="R159" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S159" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T159" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U159" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="V159" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="W159" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="X159" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y159" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z159" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA159" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="AB159" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE159" s="2" t="n">
+        <v>-3</v>
+      </c>
+      <c r="AF159" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG159" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH159" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI159" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ159" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="AK159" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="AL159" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="AM159" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E160" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F160" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G157" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="AM157" s="6"/>
-    </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="6"/>
-      <c r="B158" s="6" t="s">
-        <v>488</v>
-      </c>
-      <c r="C158" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="D158" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E158" s="6" t="n">
+      <c r="G160" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="H160" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I160" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J160" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K160" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M160" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N160" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="O160" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="F158" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="G158" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM158" s="6"/>
-    </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="6"/>
-      <c r="B159" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="C159" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="D159" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E159" s="6" t="n">
+      <c r="P160" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q160" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="R160" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="S160" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="T160" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="U160" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="F159" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="G159" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="AM159" s="6"/>
-    </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="6"/>
-      <c r="B160" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="C160" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="D160" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E160" s="6" t="n">
+      <c r="V160" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="F160" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="G160" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="AM160" s="6"/>
-    </row>
-    <row r="161" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W160" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="X160" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y160" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z160" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA160" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="AD160" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="AE160" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF160" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG160" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH160" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI160" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ160" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="AK160" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="AL160" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="AM160" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="AN160" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>492</v>
+        <v>530</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>493</v>
+        <v>523</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>494</v>
+        <v>531</v>
       </c>
       <c r="E161" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>280</v>
+        <v>337</v>
       </c>
       <c r="H161" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I161" s="1" t="n">
         <v>2</v>
       </c>
       <c r="J161" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K161" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" s="1" t="n">
         <v>1</v>
       </c>
       <c r="N161" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O161" s="1" t="n">
         <v>5</v>
       </c>
       <c r="P161" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q161" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R161" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S161" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T161" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U161" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V161" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W161" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X161" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Y161" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z161" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AA161" s="1" t="s">
-        <v>495</v>
+        <v>532</v>
+      </c>
+      <c r="AD161" s="1" t="s">
+        <v>533</v>
       </c>
       <c r="AE161" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AF161" s="2" t="n">
         <v>0</v>
@@ -8653,206 +9475,209 @@
         <v>0</v>
       </c>
       <c r="AJ161" s="1" t="s">
-        <v>496</v>
+        <v>534</v>
       </c>
       <c r="AK161" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="AL161" s="1" t="s">
-        <v>498</v>
+        <v>535</v>
+      </c>
+      <c r="AL161" s="5" t="s">
+        <v>536</v>
       </c>
       <c r="AM161" s="1" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>500</v>
+        <v>538</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>493</v>
+        <v>523</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>501</v>
+        <v>539</v>
       </c>
       <c r="E162" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="H162" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I162" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J162" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="K162" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L162" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N162" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="O162" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="F162" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G162" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="H162" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I162" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J162" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="O162" s="1" t="n">
-        <v>2</v>
-      </c>
       <c r="P162" s="1" t="n">
         <v>4</v>
       </c>
       <c r="Q162" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R162" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S162" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T162" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U162" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V162" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="W162" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X162" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Y162" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z162" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="Z162" s="1" t="n">
-        <v>5</v>
-      </c>
       <c r="AA162" s="1" t="s">
-        <v>502</v>
+        <v>540</v>
       </c>
       <c r="AB162" s="1" t="s">
-        <v>165</v>
+        <v>532</v>
+      </c>
+      <c r="AD162" s="1" t="s">
+        <v>541</v>
       </c>
       <c r="AE162" s="2" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="AF162" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG162" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH162" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AI162" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ162" s="1" t="s">
-        <v>503</v>
+        <v>542</v>
       </c>
       <c r="AK162" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="AL162" s="1" t="s">
-        <v>505</v>
+        <v>543</v>
+      </c>
+      <c r="AL162" s="5" t="s">
+        <v>544</v>
       </c>
       <c r="AM162" s="1" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>538</v>
+      </c>
+      <c r="AN162" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>506</v>
+        <v>545</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>507</v>
+        <v>523</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>508</v>
+        <v>546</v>
       </c>
       <c r="E163" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>56</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="H163" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I163" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J163" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N163" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O163" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P163" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q163" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="R163" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="S163" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T163" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="U163" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V163" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="W163" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I163" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J163" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="K163" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="M163" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="N163" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="O163" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="P163" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q163" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="R163" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="S163" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="T163" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="U163" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="V163" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="W163" s="1" t="n">
-        <v>3</v>
-      </c>
       <c r="X163" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Y163" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Z163" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA163" s="1" t="s">
-        <v>495</v>
+        <v>4</v>
       </c>
       <c r="AD163" s="1" t="s">
-        <v>509</v>
+        <v>533</v>
       </c>
       <c r="AE163" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF163" s="2" t="n">
         <v>0</v>
@@ -8867,350 +9692,20 @@
         <v>0</v>
       </c>
       <c r="AJ163" s="1" t="s">
-        <v>510</v>
+        <v>547</v>
       </c>
       <c r="AK163" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="AL163" s="1" t="s">
-        <v>512</v>
+        <v>548</v>
+      </c>
+      <c r="AL163" s="5" t="s">
+        <v>536</v>
       </c>
       <c r="AM163" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="AN163" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="E164" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G164" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="H164" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="I164" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J164" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="K164" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L164" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="O164" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="P164" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q164" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="R164" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S164" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T164" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U164" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="V164" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="W164" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="X164" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y164" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z164" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA164" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="AD164" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="AE164" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF164" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG164" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH164" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI164" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ164" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="AK164" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="AL164" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="AM164" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="E165" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="F165" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G165" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="H165" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I165" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="J165" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="K165" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="L165" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="N165" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="O165" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="P165" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q165" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="R165" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S165" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T165" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U165" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="V165" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="W165" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="X165" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y165" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z165" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA165" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="AB165" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="AD165" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="AE165" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF165" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG165" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH165" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI165" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ165" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="AK165" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="AL165" s="5" t="s">
-        <v>528</v>
-      </c>
-      <c r="AM165" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="AN165" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="E166" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F166" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G166" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="H166" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I166" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="J166" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="N166" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="O166" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="P166" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q166" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="R166" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="S166" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T166" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="U166" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="V166" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="W166" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="X166" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y166" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z166" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD166" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="AE166" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF166" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG166" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH166" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI166" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ166" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="AK166" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="AL166" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="AM166" s="1" t="s">
-        <v>533</v>
+        <v>549</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AN160"/>
+  <autoFilter ref="A2:AN157"/>
   <mergeCells count="9">
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>

--- a/GameMasterGuide/Data/Beasts/beasts.xlsx
+++ b/GameMasterGuide/Data/Beasts/beasts.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="559">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -1179,25 +1179,9 @@
     <t xml:space="preserve">The warriors and guardians of the Elves, the \name{} make great use of their nimble nature and their ability to turn invisible, more than making up for their diminutive stature. The \name{} also wield magical bows which inflict agonising pain on their targets. </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">\ability{Elfin Strike}{A \name{} performs a \imp{Precision (Elusion)} check against the highest passive \imp{Perception} of their foes. On a success, the \name{} uses a single major action to \imp{Move}, make an \imp{Elfshot} and then \imp{Phase}, on a failure, their turn ends.}
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">\ability{Phase}{A \name{} may use a \imp{MInor} action to use their \imp{Elusion} ability to become invisible}
+    <t xml:space="preserve">\ability{Elfin Strike}{A \name{} performs a \imp{Precision (Elusion)} check against the highest passive \imp{Perception} of their foes. On a success, the \name{} uses a single major action to \imp{Move}, make an \imp{Elfshot} and then \imp{Phase}, on a failure, their turn ends.}
+\ability{Phase}{A \name{} may use a \imp{MInor} action to use their \imp{Elusion} ability to become invisible}
 \rangedConsequence{Elfshot}{25}{7}{-1}{Psychic/Stabbing}{1 + Successes}{For each previous \imp{Elfshot} a target has suffered damage from, the \name{} gets one additional auto-success.}</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">\skill{Elusion}{4}
@@ -2047,6 +2031,34 @@
   <si>
     <t xml:space="preserve">basajaun</t>
   </si>
+  <si>
+    <t xml:space="preserve">Armoured Guardian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animated Object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A mundane suit of armour that has been brought to life through the use of the \imp{Animate} spell, a \name{} is a mindless automaton which strives to protect its master at whatever cost. 
+Because of their relative ease of creation, and their total and utter devotion to their master, they are often used as defensive forces against invaders in castles and stately homes - \imp{Hogwarts} maintains hundreds of suits of armours for this very purpose, though they have only been activated a handful of times across history. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psychic damage, mental conditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cutting damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\melee{Sword strike}{4}{-1}{Physical damage}{2 + Successes}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\skill{Strength}{3}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Mindless}{A \name{} has no true mind, being animated purely by magical energies. It is therefore resistant to all mental effects, including most spells from the \imp{Illusion} school – though it can be deceived by \imp{Mirages}. }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">knight</t>
+  </si>
 </sst>
 </file>
 
@@ -2055,7 +2067,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2090,11 +2102,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2198,6 +2205,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2206,18 +2217,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -2227,21 +2234,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AN163"/>
+  <dimension ref="A1:AN164"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E162" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C162" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A162" activeCellId="0" sqref="A162"/>
-      <selection pane="bottomRight" activeCell="F163" activeCellId="0" sqref="F163"/>
+      <selection pane="bottomRight" activeCell="D165" activeCellId="0" sqref="D165"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="20.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.07"/>
@@ -2259,7 +2266,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="44.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="22.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="58.22"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="39" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="39" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6046,13 +6053,13 @@
       <c r="AI51" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AJ51" s="9" t="s">
+      <c r="AJ51" s="5" t="s">
         <v>293</v>
       </c>
       <c r="AK51" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="AL51" s="9" t="s">
+      <c r="AL51" s="5" t="s">
         <v>295</v>
       </c>
       <c r="AM51" s="6" t="s">
@@ -6063,7 +6070,7 @@
       <c r="A52" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" s="9" t="s">
         <v>297</v>
       </c>
       <c r="C52" s="6" t="s">
@@ -6159,7 +6166,7 @@
       <c r="AK52" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="AL52" s="9" t="s">
+      <c r="AL52" s="5" t="s">
         <v>300</v>
       </c>
       <c r="AM52" s="6" t="s">
@@ -6170,7 +6177,7 @@
       <c r="A53" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" s="9" t="s">
         <v>302</v>
       </c>
       <c r="C53" s="6" t="s">
@@ -6266,7 +6273,7 @@
       <c r="AK53" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="AL53" s="9" t="s">
+      <c r="AL53" s="5" t="s">
         <v>306</v>
       </c>
       <c r="AM53" s="6" t="s">
@@ -6370,13 +6377,13 @@
       <c r="AI54" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AJ54" s="9" t="s">
+      <c r="AJ54" s="5" t="s">
         <v>310</v>
       </c>
       <c r="AK54" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="AL54" s="9" t="s">
+      <c r="AL54" s="5" t="s">
         <v>312</v>
       </c>
       <c r="AM54" s="6" t="s">
@@ -9702,6 +9709,107 @@
       </c>
       <c r="AM163" s="1" t="s">
         <v>549</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="93.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="E164" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="H164" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L164" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O164" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P164" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q164" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="R164" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S164" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T164" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U164" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V164" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W164" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X164" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y164" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z164" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA164" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="AB164" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="AE164" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF164" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG164" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH164" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI164" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ164" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="AK164" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="AL164" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="AM164" s="1" t="s">
+        <v>558</v>
       </c>
     </row>
   </sheetData>

--- a/GameMasterGuide/Data/Beasts/beasts.xlsx
+++ b/GameMasterGuide/Data/Beasts/beasts.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="564">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -1179,25 +1179,9 @@
     <t xml:space="preserve">The warriors and guardians of the Elves, the \name{} make great use of their nimble nature and their ability to turn invisible, more than making up for their diminutive stature. The \name{} also wield magical bows which inflict agonising pain on their targets. </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">\ability{Elfin Strike}{A \name{} performs a \imp{Precision (Elusion)} check against the highest passive \imp{Perception} of their foes. On a success, the \name{} uses a single major action to \imp{Move}, make an \imp{Elfshot} and then \imp{Phase}, on a failure, their turn ends.}
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">\ability{Phase}{A \name{} may use a \imp{MInor} action to use their \imp{Elusion} ability to become invisible}
+    <t xml:space="preserve">\ability{Elfin Strike}{A \name{} performs a \imp{Precision (Elusion)} check against the highest passive \imp{Perception} of their foes. On a success, the \name{} uses a single major action to \imp{Move}, make an \imp{Elfshot} and then \imp{Phase}, on a failure, their turn ends.}
+\ability{Phase}{A \name{} may use a \imp{MInor} action to use their \imp{Elusion} ability to become invisible}
 \rangedConsequence{Elfshot}{25}{7}{-1}{Psychic/Stabbing}{1 + Successes}{For each previous \imp{Elfshot} a target has suffered damage from, the \name{} gets one additional auto-success.}</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">\skill{Elusion}{4}
@@ -2047,6 +2031,50 @@
   <si>
     <t xml:space="preserve">basajaun</t>
   </si>
+  <si>
+    <t xml:space="preserve">Crows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A normal flock of crows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\melee{Peck}{4}{-1}{Stabbing Damage}{1 + Successes}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wolf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\melee{Maul}{3}{-1}{Stabbing Damage}{2 + Successes}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Pack Animal}{A \name{} gets one automatic success when within 1m of another \name{}. Every additional \name{} (up to a maximum of 3) grants +1d}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giant Snake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A very large snake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\melee{Bite}{3}{-1}{Stabbing Damage}{2 + Successes}
+\area{Spray}{cone 3m from \name{}}{4}{-1}{Poison Damage}{1 + Successes}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Living Book</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A soul-imbued book</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\melee{Slam}{2}{-2}{Bashing Damage}{1 + Successes}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Brain Drain}{All creatures within 5m of a \name{} suffer a 1d penalty to all intelligence checks, but must succeed on a DV 8 \imp{Intelligence (Investigation)} check to understand that this is what is happening.}</t>
+  </si>
 </sst>
 </file>
 
@@ -2055,7 +2083,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2090,11 +2118,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2198,15 +2221,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2231,14 +2254,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AN163"/>
+  <dimension ref="A1:AN167"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E162" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="G163" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A162" activeCellId="0" sqref="A162"/>
-      <selection pane="bottomRight" activeCell="F163" activeCellId="0" sqref="F163"/>
+      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A163" activeCellId="0" sqref="A163"/>
+      <selection pane="bottomRight" activeCell="J167" activeCellId="0" sqref="J167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6046,13 +6069,13 @@
       <c r="AI51" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AJ51" s="9" t="s">
+      <c r="AJ51" s="5" t="s">
         <v>293</v>
       </c>
       <c r="AK51" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="AL51" s="9" t="s">
+      <c r="AL51" s="5" t="s">
         <v>295</v>
       </c>
       <c r="AM51" s="6" t="s">
@@ -6063,7 +6086,7 @@
       <c r="A52" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" s="9" t="s">
         <v>297</v>
       </c>
       <c r="C52" s="6" t="s">
@@ -6159,7 +6182,7 @@
       <c r="AK52" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="AL52" s="9" t="s">
+      <c r="AL52" s="5" t="s">
         <v>300</v>
       </c>
       <c r="AM52" s="6" t="s">
@@ -6170,7 +6193,7 @@
       <c r="A53" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" s="9" t="s">
         <v>302</v>
       </c>
       <c r="C53" s="6" t="s">
@@ -6266,7 +6289,7 @@
       <c r="AK53" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="AL53" s="9" t="s">
+      <c r="AL53" s="5" t="s">
         <v>306</v>
       </c>
       <c r="AM53" s="6" t="s">
@@ -6370,13 +6393,13 @@
       <c r="AI54" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AJ54" s="9" t="s">
+      <c r="AJ54" s="5" t="s">
         <v>310</v>
       </c>
       <c r="AK54" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="AL54" s="9" t="s">
+      <c r="AL54" s="5" t="s">
         <v>312</v>
       </c>
       <c r="AM54" s="6" t="s">
@@ -9702,6 +9725,332 @@
       </c>
       <c r="AM163" s="1" t="s">
         <v>549</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="E164" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H164" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J164" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O164" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P164" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q164" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R164" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S164" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T164" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U164" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V164" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W164" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="X164" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y164" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z164" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG164" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ164" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="E165" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H165" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I165" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K165" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O165" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P165" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q165" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R165" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S165" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T165" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U165" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V165" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W165" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X165" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y165" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z165" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE165" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ165" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="AL165" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="59.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="E166" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H166" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I166" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J166" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K166" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O166" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P166" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q166" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="R166" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S166" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T166" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U166" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V166" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W166" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X166" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y166" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z166" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB166" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE166" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ166" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E167" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="H167" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O167" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P167" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q167" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R167" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S167" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T167" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U167" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="V167" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W167" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X167" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y167" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z167" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD167" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AG167" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ167" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="AL167" s="1" t="s">
+        <v>563</v>
       </c>
     </row>
   </sheetData>

--- a/GameMasterGuide/Data/Beasts/beasts.xlsx
+++ b/GameMasterGuide/Data/Beasts/beasts.xlsx
@@ -2254,14 +2254,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AN167"/>
+  <dimension ref="A1:AN168"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="G163" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C163" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A163" activeCellId="0" sqref="A163"/>
-      <selection pane="bottomRight" activeCell="J167" activeCellId="0" sqref="J167"/>
+      <selection pane="bottomRight" activeCell="A168" activeCellId="0" sqref="A168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10053,6 +10053,7 @@
         <v>563</v>
       </c>
     </row>
+    <row r="168" customFormat="false" ht="94.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A2:AN157"/>
   <mergeCells count="9">
